--- a/03_ips_clean/11_IPS_COMPLETE_WIDE.xlsx
+++ b/03_ips_clean/11_IPS_COMPLETE_WIDE.xlsx
@@ -596,16 +596,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>65.9807230309219</v>
+        <v>70.8724587121269</v>
       </c>
       <c r="E2" t="n">
-        <v>66.5289310962143</v>
+        <v>65.5319361444398</v>
       </c>
       <c r="F2" t="n">
-        <v>50.0543895672622</v>
+        <v>50.044175646975</v>
       </c>
       <c r="G2" t="n">
-        <v>60.8546812314661</v>
+        <v>62.1495235011806</v>
       </c>
     </row>
     <row r="3">
@@ -619,16 +619,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>80.7364421843257</v>
+        <v>83.5903944054927</v>
       </c>
       <c r="E3" t="n">
-        <v>69.5357234243354</v>
+        <v>68.1587023962588</v>
       </c>
       <c r="F3" t="n">
-        <v>53.9910374768901</v>
+        <v>53.9491349666636</v>
       </c>
       <c r="G3" t="n">
-        <v>68.0877343618504</v>
+        <v>68.5660772561384</v>
       </c>
     </row>
     <row r="4">
@@ -642,16 +642,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>73.1660804333569</v>
+        <v>76.2363098430811</v>
       </c>
       <c r="E4" t="n">
-        <v>74.4966988386492</v>
+        <v>71.7094586220144</v>
       </c>
       <c r="F4" t="n">
-        <v>53.6763606980892</v>
+        <v>53.6704168584077</v>
       </c>
       <c r="G4" t="n">
-        <v>67.1130466566985</v>
+        <v>67.2053951078344</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>62.1365031792519</v>
+        <v>64.8651061909402</v>
       </c>
       <c r="E5" t="n">
-        <v>76.374042207033</v>
+        <v>73.2715180401798</v>
       </c>
       <c r="F5" t="n">
-        <v>53.7424412057329</v>
+        <v>53.7273437799</v>
       </c>
       <c r="G5" t="n">
-        <v>64.084328864006</v>
+        <v>63.9546560036733</v>
       </c>
     </row>
     <row r="6">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>68.6648820899063</v>
+        <v>75.11866992478</v>
       </c>
       <c r="E6" t="n">
-        <v>63.8579032642747</v>
+        <v>62.3887676877471</v>
       </c>
       <c r="F6" t="n">
-        <v>51.3777652992979</v>
+        <v>51.3355543371653</v>
       </c>
       <c r="G6" t="n">
-        <v>61.3001835511596</v>
+        <v>62.9476639832308</v>
       </c>
     </row>
     <row r="7">
@@ -711,16 +711,16 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>64.0652759856736</v>
+        <v>67.9783605961747</v>
       </c>
       <c r="E7" t="n">
-        <v>64.8779509546318</v>
+        <v>64.5628241003924</v>
       </c>
       <c r="F7" t="n">
-        <v>52.4590873237529</v>
+        <v>52.4500297590047</v>
       </c>
       <c r="G7" t="n">
-        <v>60.4674380880194</v>
+        <v>61.6637381518572</v>
       </c>
     </row>
     <row r="8">
@@ -734,16 +734,16 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>59.4124668626393</v>
+        <v>63.0590249690705</v>
       </c>
       <c r="E8" t="n">
-        <v>67.1656714872813</v>
+        <v>67.1286944468684</v>
       </c>
       <c r="F8" t="n">
-        <v>56.1986659196721</v>
+        <v>56.2008016021433</v>
       </c>
       <c r="G8" t="n">
-        <v>60.9256014231976</v>
+        <v>62.1295070060274</v>
       </c>
     </row>
     <row r="9">
@@ -757,16 +757,16 @@
         <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>40.3239609261084</v>
+        <v>51.2453814959791</v>
       </c>
       <c r="E9" t="n">
-        <v>57.7692475428492</v>
+        <v>55.9390870898687</v>
       </c>
       <c r="F9" t="n">
-        <v>37.6799675650638</v>
+        <v>37.6881757465306</v>
       </c>
       <c r="G9" t="n">
-        <v>45.2577253446738</v>
+        <v>48.2908814441261</v>
       </c>
     </row>
     <row r="10">
@@ -780,16 +780,16 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2702961971085</v>
+        <v>68.8544425170481</v>
       </c>
       <c r="E10" t="n">
-        <v>68.4062758225327</v>
+        <v>65.4729662712052</v>
       </c>
       <c r="F10" t="n">
-        <v>52.0977805425001</v>
+        <v>52.1113972052363</v>
       </c>
       <c r="G10" t="n">
-        <v>61.5914508540471</v>
+        <v>62.1462686644966</v>
       </c>
     </row>
     <row r="11">
@@ -803,16 +803,16 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>73.4836643814034</v>
+        <v>74.5343693022612</v>
       </c>
       <c r="E11" t="n">
-        <v>73.564637527817</v>
+        <v>73.0599689355416</v>
       </c>
       <c r="F11" t="n">
-        <v>62.5472101832979</v>
+        <v>62.5488574692751</v>
       </c>
       <c r="G11" t="n">
-        <v>69.8651706975061</v>
+        <v>70.0477319023593</v>
       </c>
     </row>
     <row r="12">
@@ -826,16 +826,16 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>73.2754945360262</v>
+        <v>78.0576586218856</v>
       </c>
       <c r="E12" t="n">
-        <v>66.7007487711774</v>
+        <v>64.024309952812</v>
       </c>
       <c r="F12" t="n">
-        <v>48.2269657795475</v>
+        <v>48.2204217451651</v>
       </c>
       <c r="G12" t="n">
-        <v>62.734403028917</v>
+        <v>63.4341301066209</v>
       </c>
     </row>
     <row r="13">
@@ -849,16 +849,16 @@
         <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0771548280649</v>
+        <v>61.8739236202892</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5072245533493</v>
+        <v>66.3204620207408</v>
       </c>
       <c r="F13" t="n">
-        <v>43.5743913860209</v>
+        <v>43.541307740152</v>
       </c>
       <c r="G13" t="n">
-        <v>55.3862569224784</v>
+        <v>57.2452311270607</v>
       </c>
     </row>
     <row r="14">
@@ -872,16 +872,16 @@
         <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>33.4239401876858</v>
+        <v>43.3913815380724</v>
       </c>
       <c r="E14" t="n">
-        <v>55.5226502722953</v>
+        <v>55.1260899311849</v>
       </c>
       <c r="F14" t="n">
-        <v>37.5671715395473</v>
+        <v>37.551078032415</v>
       </c>
       <c r="G14" t="n">
-        <v>42.1712539998428</v>
+        <v>45.3561831672241</v>
       </c>
     </row>
     <row r="15">
@@ -895,16 +895,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>64.6366406892227</v>
+        <v>69.4940474212727</v>
       </c>
       <c r="E15" t="n">
-        <v>65.0131224456894</v>
+        <v>63.1434784013599</v>
       </c>
       <c r="F15" t="n">
-        <v>46.292996990601</v>
+        <v>46.2758436367376</v>
       </c>
       <c r="G15" t="n">
-        <v>58.6475867085044</v>
+        <v>59.6377898197901</v>
       </c>
     </row>
     <row r="16">
@@ -918,16 +918,16 @@
         <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>75.9715595865156</v>
+        <v>78.4144523681459</v>
       </c>
       <c r="E16" t="n">
-        <v>71.5430984279315</v>
+        <v>70.1176719066091</v>
       </c>
       <c r="F16" t="n">
-        <v>53.2516191181672</v>
+        <v>53.2276954016784</v>
       </c>
       <c r="G16" t="n">
-        <v>66.9220923775381</v>
+        <v>67.2532732254778</v>
       </c>
     </row>
     <row r="17">
@@ -941,16 +941,16 @@
         <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>64.4985515397275</v>
+        <v>69.6915935978934</v>
       </c>
       <c r="E17" t="n">
-        <v>68.6654139563634</v>
+        <v>68.9863044235798</v>
       </c>
       <c r="F17" t="n">
-        <v>47.3659262065582</v>
+        <v>47.3469241883201</v>
       </c>
       <c r="G17" t="n">
-        <v>60.1766305675497</v>
+        <v>62.0082740699311</v>
       </c>
     </row>
     <row r="18">
@@ -964,16 +964,16 @@
         <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>55.6410372280829</v>
+        <v>64.8300361493345</v>
       </c>
       <c r="E18" t="n">
-        <v>60.9019704827398</v>
+        <v>60.4280570779501</v>
       </c>
       <c r="F18" t="n">
-        <v>46.0657872652916</v>
+        <v>46.0565830680254</v>
       </c>
       <c r="G18" t="n">
-        <v>54.2029316587048</v>
+        <v>57.1048920984367</v>
       </c>
     </row>
     <row r="19">
@@ -987,16 +987,16 @@
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>55.6902340798122</v>
+        <v>60.6535417945206</v>
       </c>
       <c r="E19" t="n">
-        <v>65.2881575333486</v>
+        <v>65.6566790419741</v>
       </c>
       <c r="F19" t="n">
-        <v>50.8295222580419</v>
+        <v>50.7955868079688</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2693046237342</v>
+        <v>59.0352692148212</v>
       </c>
     </row>
     <row r="20">
@@ -1010,16 +1010,16 @@
         <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>65.8472599893617</v>
+        <v>71.6699579947644</v>
       </c>
       <c r="E20" t="n">
-        <v>65.1131047600429</v>
+        <v>63.2180213382485</v>
       </c>
       <c r="F20" t="n">
-        <v>52.3970988597518</v>
+        <v>52.3936372544382</v>
       </c>
       <c r="G20" t="n">
-        <v>61.1191545363855</v>
+        <v>62.4272055291504</v>
       </c>
     </row>
     <row r="21">
@@ -1033,16 +1033,16 @@
         <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>80.6962439903834</v>
+        <v>82.1969733062651</v>
       </c>
       <c r="E21" t="n">
-        <v>72.2716918844712</v>
+        <v>69.6911116750559</v>
       </c>
       <c r="F21" t="n">
-        <v>62.097770129846</v>
+        <v>62.077819460171</v>
       </c>
       <c r="G21" t="n">
-        <v>71.6885686682335</v>
+        <v>71.321968147164</v>
       </c>
     </row>
     <row r="22">
@@ -1056,16 +1056,16 @@
         <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0717394660252</v>
+        <v>61.2816096575564</v>
       </c>
       <c r="E22" t="n">
-        <v>58.3737891207703</v>
+        <v>56.8153884455451</v>
       </c>
       <c r="F22" t="n">
-        <v>38.4376668204786</v>
+        <v>38.4389460873118</v>
       </c>
       <c r="G22" t="n">
-        <v>48.961065135758</v>
+        <v>52.1786480634711</v>
       </c>
     </row>
     <row r="23">
@@ -1079,16 +1079,16 @@
         <v>46</v>
       </c>
       <c r="D23" t="n">
-        <v>54.4633908843764</v>
+        <v>59.4951905742899</v>
       </c>
       <c r="E23" t="n">
-        <v>63.2754372002089</v>
+        <v>63.5870459792432</v>
       </c>
       <c r="F23" t="n">
-        <v>46.509889636448</v>
+        <v>46.4961213136142</v>
       </c>
       <c r="G23" t="n">
-        <v>54.7495725736777</v>
+        <v>56.5261192890491</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>48</v>
       </c>
       <c r="D24" t="n">
-        <v>79.5047593157295</v>
+        <v>81.6661516805437</v>
       </c>
       <c r="E24" t="n">
-        <v>74.255021770182</v>
+        <v>71.8509802174419</v>
       </c>
       <c r="F24" t="n">
-        <v>54.3985379527714</v>
+        <v>54.3974281144903</v>
       </c>
       <c r="G24" t="n">
-        <v>69.3861063462276</v>
+        <v>69.304853337492</v>
       </c>
     </row>
     <row r="25">
@@ -1125,16 +1125,16 @@
         <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>75.8223476653771</v>
+        <v>79.5533391072245</v>
       </c>
       <c r="E25" t="n">
-        <v>71.5501309878444</v>
+        <v>69.8010388788056</v>
       </c>
       <c r="F25" t="n">
-        <v>50.4429342466162</v>
+        <v>50.4375960327738</v>
       </c>
       <c r="G25" t="n">
-        <v>65.9384709666126</v>
+        <v>66.5973246729346</v>
       </c>
     </row>
     <row r="26">
@@ -1148,16 +1148,16 @@
         <v>52</v>
       </c>
       <c r="D26" t="n">
-        <v>65.3119311785224</v>
+        <v>69.090094174938</v>
       </c>
       <c r="E26" t="n">
-        <v>63.1661813736054</v>
+        <v>60.7813103367993</v>
       </c>
       <c r="F26" t="n">
-        <v>52.1105695615005</v>
+        <v>52.1109799765218</v>
       </c>
       <c r="G26" t="n">
-        <v>60.1962273712094</v>
+        <v>60.6607948294197</v>
       </c>
     </row>
     <row r="27">
@@ -1171,16 +1171,16 @@
         <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>72.29704677071</v>
+        <v>76.1686220256114</v>
       </c>
       <c r="E27" t="n">
-        <v>71.0428834747703</v>
+        <v>68.047904326822</v>
       </c>
       <c r="F27" t="n">
-        <v>53.4966586197704</v>
+        <v>53.4522959089771</v>
       </c>
       <c r="G27" t="n">
-        <v>65.6121962884169</v>
+        <v>65.8896074204702</v>
       </c>
     </row>
     <row r="28">
@@ -1194,16 +1194,16 @@
         <v>56</v>
       </c>
       <c r="D28" t="n">
-        <v>73.8592988425503</v>
+        <v>76.9727206907951</v>
       </c>
       <c r="E28" t="n">
-        <v>71.4483001332618</v>
+        <v>68.1836398470367</v>
       </c>
       <c r="F28" t="n">
-        <v>57.286011991197</v>
+        <v>57.2751215265767</v>
       </c>
       <c r="G28" t="n">
-        <v>67.5312036556697</v>
+        <v>67.4771606881362</v>
       </c>
     </row>
     <row r="29">
@@ -1217,16 +1217,16 @@
         <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>57.8529342676791</v>
+        <v>61.6095320541764</v>
       </c>
       <c r="E29" t="n">
-        <v>60.4688811313889</v>
+        <v>60.7026708860959</v>
       </c>
       <c r="F29" t="n">
-        <v>48.6644847862406</v>
+        <v>48.6411255214033</v>
       </c>
       <c r="G29" t="n">
-        <v>55.6621000617696</v>
+        <v>56.9844428205585</v>
       </c>
     </row>
     <row r="30">
@@ -1240,16 +1240,16 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>71.7094550026163</v>
+        <v>75.1058280653544</v>
       </c>
       <c r="E30" t="n">
-        <v>65.5109532932623</v>
+        <v>64.8650946247095</v>
       </c>
       <c r="F30" t="n">
-        <v>53.2447327202577</v>
+        <v>53.1888513458236</v>
       </c>
       <c r="G30" t="n">
-        <v>63.4883803387121</v>
+        <v>64.3865913452958</v>
       </c>
     </row>
     <row r="31">
@@ -1263,16 +1263,16 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>69.9570613066752</v>
+        <v>73.438319833251</v>
       </c>
       <c r="E31" t="n">
-        <v>63.912157408661</v>
+        <v>64.4976991599361</v>
       </c>
       <c r="F31" t="n">
-        <v>49.6771951652603</v>
+        <v>49.6731231134015</v>
       </c>
       <c r="G31" t="n">
-        <v>61.1821379601988</v>
+        <v>62.5363807021962</v>
       </c>
     </row>
     <row r="32">
@@ -1286,16 +1286,16 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>64.5613708634063</v>
+        <v>68.0581852280322</v>
       </c>
       <c r="E32" t="n">
-        <v>57.8666443409444</v>
+        <v>58.2847511235952</v>
       </c>
       <c r="F32" t="n">
-        <v>44.8838127303717</v>
+        <v>44.8618436481326</v>
       </c>
       <c r="G32" t="n">
-        <v>55.7706093115741</v>
+        <v>57.06825999992</v>
       </c>
     </row>
     <row r="33">
@@ -1309,16 +1309,16 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>77.1898138511143</v>
+        <v>79.4910380081265</v>
       </c>
       <c r="E33" t="n">
-        <v>65.1194461168999</v>
+        <v>62.0729579581308</v>
       </c>
       <c r="F33" t="n">
-        <v>54.0924043754537</v>
+        <v>54.0606092302086</v>
       </c>
       <c r="G33" t="n">
-        <v>65.4672214478226</v>
+        <v>65.2082017321553</v>
       </c>
     </row>
     <row r="34">
@@ -1332,16 +1332,16 @@
         <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>61.263087155272</v>
+        <v>67.8763336564985</v>
       </c>
       <c r="E34" t="n">
-        <v>62.2409047120218</v>
+        <v>60.3355652223783</v>
       </c>
       <c r="F34" t="n">
-        <v>48.1136616640329</v>
+        <v>48.096323786919</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2058845104422</v>
+        <v>58.7694075552652</v>
       </c>
     </row>
     <row r="35">
@@ -1355,16 +1355,16 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>66.6483305905023</v>
+        <v>71.4735565864467</v>
       </c>
       <c r="E35" t="n">
-        <v>65.9115103658542</v>
+        <v>65.2064300778594</v>
       </c>
       <c r="F35" t="n">
-        <v>51.0985619911541</v>
+        <v>51.0809686090481</v>
       </c>
       <c r="G35" t="n">
-        <v>61.2194676491702</v>
+        <v>62.586985091118</v>
       </c>
     </row>
     <row r="36">
@@ -1378,16 +1378,16 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>81.8944598943494</v>
+        <v>84.3157809749717</v>
       </c>
       <c r="E36" t="n">
-        <v>69.5600779030043</v>
+        <v>67.8382470070513</v>
       </c>
       <c r="F36" t="n">
-        <v>53.9533872842193</v>
+        <v>53.9211351620083</v>
       </c>
       <c r="G36" t="n">
-        <v>68.4693083605243</v>
+        <v>68.6917210480104</v>
       </c>
     </row>
     <row r="37">
@@ -1401,16 +1401,16 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>75.476507782749</v>
+        <v>78.0918976499516</v>
       </c>
       <c r="E37" t="n">
-        <v>74.0087640867848</v>
+        <v>71.9658873957698</v>
       </c>
       <c r="F37" t="n">
-        <v>55.6784176386497</v>
+        <v>55.6603040799097</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3878965027278</v>
+        <v>68.5726963752104</v>
       </c>
     </row>
     <row r="38">
@@ -1424,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>63.8607181420148</v>
+        <v>66.1108542303113</v>
       </c>
       <c r="E38" t="n">
-        <v>74.1698176692435</v>
+        <v>71.1726976574549</v>
       </c>
       <c r="F38" t="n">
-        <v>55.4046943627445</v>
+        <v>55.3880767508747</v>
       </c>
       <c r="G38" t="n">
-        <v>64.4784100580009</v>
+        <v>64.2238762128803</v>
       </c>
     </row>
     <row r="39">
@@ -1447,16 +1447,16 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>71.1585888899038</v>
+        <v>76.11231569897</v>
       </c>
       <c r="E39" t="n">
-        <v>60.0462488054446</v>
+        <v>59.8495843501884</v>
       </c>
       <c r="F39" t="n">
-        <v>52.4055312870873</v>
+        <v>52.3595730679136</v>
       </c>
       <c r="G39" t="n">
-        <v>61.2034563274785</v>
+        <v>62.7738243723573</v>
       </c>
     </row>
     <row r="40">
@@ -1470,16 +1470,16 @@
         <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>74.436473074623</v>
+        <v>79.1238955687266</v>
       </c>
       <c r="E40" t="n">
-        <v>65.3577419121018</v>
+        <v>64.733275408531</v>
       </c>
       <c r="F40" t="n">
-        <v>55.479972074375</v>
+        <v>55.4663976161862</v>
       </c>
       <c r="G40" t="n">
-        <v>65.0913956870333</v>
+        <v>66.4411895311479</v>
       </c>
     </row>
     <row r="41">
@@ -1493,16 +1493,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>70.7285636438847</v>
+        <v>75.0771205801</v>
       </c>
       <c r="E41" t="n">
-        <v>67.8073005635331</v>
+        <v>66.9500727568176</v>
       </c>
       <c r="F41" t="n">
-        <v>55.5514128022529</v>
+        <v>55.5489418375138</v>
       </c>
       <c r="G41" t="n">
-        <v>64.6957590032236</v>
+        <v>65.8587117248105</v>
       </c>
     </row>
     <row r="42">
@@ -1516,16 +1516,16 @@
         <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>47.3853467394531</v>
+        <v>57.0060651289633</v>
       </c>
       <c r="E42" t="n">
-        <v>59.3931842790242</v>
+        <v>57.8922368898019</v>
       </c>
       <c r="F42" t="n">
-        <v>38.0555906651207</v>
+        <v>38.0476291303449</v>
       </c>
       <c r="G42" t="n">
-        <v>48.2780405611993</v>
+        <v>50.9819770497034</v>
       </c>
     </row>
     <row r="43">
@@ -1539,16 +1539,16 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>72.1310159358559</v>
+        <v>76.4746464130983</v>
       </c>
       <c r="E43" t="n">
-        <v>68.2123358276851</v>
+        <v>65.7392658224249</v>
       </c>
       <c r="F43" t="n">
-        <v>53.7242727535258</v>
+        <v>53.6998535267885</v>
       </c>
       <c r="G43" t="n">
-        <v>64.6892081723556</v>
+        <v>65.3045885874373</v>
       </c>
     </row>
     <row r="44">
@@ -1562,16 +1562,16 @@
         <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>75.9849671011536</v>
+        <v>74.6619477946754</v>
       </c>
       <c r="E44" t="n">
-        <v>73.671593567322</v>
+        <v>73.4439416510247</v>
       </c>
       <c r="F44" t="n">
-        <v>65.7514939837167</v>
+        <v>65.7398221146672</v>
       </c>
       <c r="G44" t="n">
-        <v>71.8026848840641</v>
+        <v>71.2819038534558</v>
       </c>
     </row>
     <row r="45">
@@ -1585,16 +1585,16 @@
         <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>74.4487110220132</v>
+        <v>79.5873226915103</v>
       </c>
       <c r="E45" t="n">
-        <v>67.2401089908573</v>
+        <v>64.4571387268306</v>
       </c>
       <c r="F45" t="n">
-        <v>51.6080259738792</v>
+        <v>51.5845443384727</v>
       </c>
       <c r="G45" t="n">
-        <v>64.4322819955832</v>
+        <v>65.2096685856045</v>
       </c>
     </row>
     <row r="46">
@@ -1608,16 +1608,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>72.6448149024517</v>
+        <v>78.4742129014617</v>
       </c>
       <c r="E46" t="n">
-        <v>64.9016909257577</v>
+        <v>64.8375028635327</v>
       </c>
       <c r="F46" t="n">
-        <v>46.5434175228416</v>
+        <v>46.51063163457</v>
       </c>
       <c r="G46" t="n">
-        <v>61.3633077836837</v>
+        <v>63.2741157998548</v>
       </c>
     </row>
     <row r="47">
@@ -1631,16 +1631,16 @@
         <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>33.6990637052518</v>
+        <v>43.8558338521584</v>
       </c>
       <c r="E47" t="n">
-        <v>56.8637758527867</v>
+        <v>56.290775335529</v>
       </c>
       <c r="F47" t="n">
-        <v>38.7577163033523</v>
+        <v>38.7423288045026</v>
       </c>
       <c r="G47" t="n">
-        <v>43.1068519537969</v>
+        <v>46.2963126640634</v>
       </c>
     </row>
     <row r="48">
@@ -1654,16 +1654,16 @@
         <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>65.5380915374505</v>
+        <v>69.9747647124395</v>
       </c>
       <c r="E48" t="n">
-        <v>66.6363126166074</v>
+        <v>65.1793853209345</v>
       </c>
       <c r="F48" t="n">
-        <v>47.5956345476522</v>
+        <v>47.5736722489501</v>
       </c>
       <c r="G48" t="n">
-        <v>59.9233462339033</v>
+        <v>60.9092740941081</v>
       </c>
     </row>
     <row r="49">
@@ -1677,16 +1677,16 @@
         <v>32</v>
       </c>
       <c r="D49" t="n">
-        <v>77.2777113729646</v>
+        <v>80.0257151738063</v>
       </c>
       <c r="E49" t="n">
-        <v>70.9226558542634</v>
+        <v>69.7700220647865</v>
       </c>
       <c r="F49" t="n">
-        <v>53.2113012108231</v>
+        <v>53.1831547219745</v>
       </c>
       <c r="G49" t="n">
-        <v>67.1372228126837</v>
+        <v>67.6596306535224</v>
       </c>
     </row>
     <row r="50">
@@ -1700,16 +1700,16 @@
         <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>63.4104786935224</v>
+        <v>69.605530545598</v>
       </c>
       <c r="E50" t="n">
-        <v>67.4954819636282</v>
+        <v>68.1469919877676</v>
       </c>
       <c r="F50" t="n">
-        <v>49.0943068274957</v>
+        <v>49.0613685634185</v>
       </c>
       <c r="G50" t="n">
-        <v>60.0000891615487</v>
+        <v>62.2712970322614</v>
       </c>
     </row>
     <row r="51">
@@ -1723,16 +1723,16 @@
         <v>36</v>
       </c>
       <c r="D51" t="n">
-        <v>61.1482742342206</v>
+        <v>69.0354175224381</v>
       </c>
       <c r="E51" t="n">
-        <v>61.443495067419</v>
+        <v>61.7357254391451</v>
       </c>
       <c r="F51" t="n">
-        <v>47.1176852609146</v>
+        <v>47.1087049542417</v>
       </c>
       <c r="G51" t="n">
-        <v>56.569818187518</v>
+        <v>59.2932826386083</v>
       </c>
     </row>
     <row r="52">
@@ -1746,16 +1746,16 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>58.5160312324691</v>
+        <v>63.1489485891659</v>
       </c>
       <c r="E52" t="n">
-        <v>64.4807895743338</v>
+        <v>65.3711958599005</v>
       </c>
       <c r="F52" t="n">
-        <v>50.716463788404</v>
+        <v>50.675308410955</v>
       </c>
       <c r="G52" t="n">
-        <v>57.9044281984023</v>
+        <v>59.7318176200071</v>
       </c>
     </row>
     <row r="53">
@@ -1769,16 +1769,16 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>71.6380507960671</v>
+        <v>75.3259188596928</v>
       </c>
       <c r="E53" t="n">
-        <v>65.679157746872</v>
+        <v>63.8893473970201</v>
       </c>
       <c r="F53" t="n">
-        <v>51.4831211569633</v>
+        <v>51.4861369232856</v>
       </c>
       <c r="G53" t="n">
-        <v>62.9334432333008</v>
+        <v>63.5671343933328</v>
       </c>
     </row>
     <row r="54">
@@ -1792,16 +1792,16 @@
         <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>78.6736276930058</v>
+        <v>81.1101101444343</v>
       </c>
       <c r="E54" t="n">
-        <v>71.3668716366714</v>
+        <v>68.913047702473</v>
       </c>
       <c r="F54" t="n">
-        <v>59.8665165748013</v>
+        <v>59.8432526793324</v>
       </c>
       <c r="G54" t="n">
-        <v>69.9690053014928</v>
+        <v>69.9554701754132</v>
       </c>
     </row>
     <row r="55">
@@ -1815,16 +1815,16 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>46.4574911539083</v>
+        <v>57.4029818741151</v>
       </c>
       <c r="E55" t="n">
-        <v>55.9456607577732</v>
+        <v>54.7214127496985</v>
       </c>
       <c r="F55" t="n">
-        <v>39.7554538117157</v>
+        <v>39.7451584230038</v>
       </c>
       <c r="G55" t="n">
-        <v>47.386201907799</v>
+        <v>50.6231843489391</v>
       </c>
     </row>
     <row r="56">
@@ -1838,16 +1838,16 @@
         <v>46</v>
       </c>
       <c r="D56" t="n">
-        <v>57.7540813886158</v>
+        <v>62.6988469915246</v>
       </c>
       <c r="E56" t="n">
-        <v>62.3978199233395</v>
+        <v>63.3232980223175</v>
       </c>
       <c r="F56" t="n">
-        <v>47.288499477002</v>
+        <v>47.2723900620411</v>
       </c>
       <c r="G56" t="n">
-        <v>55.8134669296524</v>
+        <v>57.7648450252944</v>
       </c>
     </row>
     <row r="57">
@@ -1861,16 +1861,16 @@
         <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>77.5463724270522</v>
+        <v>80.3912879770534</v>
       </c>
       <c r="E57" t="n">
-        <v>72.9812462084954</v>
+        <v>71.1594487886564</v>
       </c>
       <c r="F57" t="n">
-        <v>55.2144349999032</v>
+        <v>55.2026555450027</v>
       </c>
       <c r="G57" t="n">
-        <v>68.5806845451503</v>
+        <v>68.9177974369042</v>
       </c>
     </row>
     <row r="58">
@@ -1884,16 +1884,16 @@
         <v>50</v>
       </c>
       <c r="D58" t="n">
-        <v>74.5933116141969</v>
+        <v>78.8283156200152</v>
       </c>
       <c r="E58" t="n">
-        <v>71.6895041416344</v>
+        <v>70.2402234275782</v>
       </c>
       <c r="F58" t="n">
-        <v>51.9964075830564</v>
+        <v>51.8756028119761</v>
       </c>
       <c r="G58" t="n">
-        <v>66.0930744462959</v>
+        <v>66.9813806198565</v>
       </c>
     </row>
     <row r="59">
@@ -1907,16 +1907,16 @@
         <v>52</v>
       </c>
       <c r="D59" t="n">
-        <v>67.0629373353714</v>
+        <v>69.9679721583213</v>
       </c>
       <c r="E59" t="n">
-        <v>63.9981493037836</v>
+        <v>61.9413508651316</v>
       </c>
       <c r="F59" t="n">
-        <v>51.4757260940107</v>
+        <v>51.4706334546415</v>
       </c>
       <c r="G59" t="n">
-        <v>60.8456042443886</v>
+        <v>61.1266521593648</v>
       </c>
     </row>
     <row r="60">
@@ -1930,16 +1930,16 @@
         <v>54</v>
       </c>
       <c r="D60" t="n">
-        <v>71.0971597055455</v>
+        <v>77.2095568965625</v>
       </c>
       <c r="E60" t="n">
-        <v>70.1596570480869</v>
+        <v>67.2226599057748</v>
       </c>
       <c r="F60" t="n">
-        <v>54.7756667777903</v>
+        <v>54.5367743978634</v>
       </c>
       <c r="G60" t="n">
-        <v>65.3441611771409</v>
+        <v>66.3229970667336</v>
       </c>
     </row>
     <row r="61">
@@ -1953,16 +1953,16 @@
         <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>74.2582612124164</v>
+        <v>77.6533623731054</v>
       </c>
       <c r="E61" t="n">
-        <v>71.933204992598</v>
+        <v>68.5110364311497</v>
       </c>
       <c r="F61" t="n">
-        <v>57.2458334574264</v>
+        <v>57.2289978950997</v>
       </c>
       <c r="G61" t="n">
-        <v>67.8124332208136</v>
+        <v>67.7977988997849</v>
       </c>
     </row>
     <row r="62">
@@ -1976,16 +1976,16 @@
         <v>58</v>
       </c>
       <c r="D62" t="n">
-        <v>59.7050283283891</v>
+        <v>63.5659202930701</v>
       </c>
       <c r="E62" t="n">
-        <v>59.8570511637224</v>
+        <v>60.9149611688226</v>
       </c>
       <c r="F62" t="n">
-        <v>49.3168522837172</v>
+        <v>49.333255248796</v>
       </c>
       <c r="G62" t="n">
-        <v>56.2929772586096</v>
+        <v>57.9380455702296</v>
       </c>
     </row>
     <row r="63">
@@ -1999,16 +1999,16 @@
         <v>60</v>
       </c>
       <c r="D63" t="n">
-        <v>73.3743698243698</v>
+        <v>76.1998415130562</v>
       </c>
       <c r="E63" t="n">
-        <v>65.9392257515712</v>
+        <v>65.0683905201532</v>
       </c>
       <c r="F63" t="n">
-        <v>52.8658718193249</v>
+        <v>52.6775538817715</v>
       </c>
       <c r="G63" t="n">
-        <v>64.0598224650886</v>
+        <v>64.6485953049936</v>
       </c>
     </row>
     <row r="64">
@@ -2022,16 +2022,16 @@
         <v>62</v>
       </c>
       <c r="D64" t="n">
-        <v>67.7008881090472</v>
+        <v>72.6203467092633</v>
       </c>
       <c r="E64" t="n">
-        <v>63.0859024341338</v>
+        <v>64.5498353501514</v>
       </c>
       <c r="F64" t="n">
-        <v>48.8597234071822</v>
+        <v>48.8459330536072</v>
       </c>
       <c r="G64" t="n">
-        <v>59.8821713167878</v>
+        <v>62.0053717043406</v>
       </c>
     </row>
     <row r="65">
@@ -2045,16 +2045,16 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>63.852308735987</v>
+        <v>66.8253251176235</v>
       </c>
       <c r="E65" t="n">
-        <v>53.534336760234</v>
+        <v>54.2756242197893</v>
       </c>
       <c r="F65" t="n">
-        <v>45.2745955999113</v>
+        <v>44.8914790733769</v>
       </c>
       <c r="G65" t="n">
-        <v>54.2204136987108</v>
+        <v>55.3308094702633</v>
       </c>
     </row>
     <row r="66">
@@ -2068,16 +2068,16 @@
         <v>66</v>
       </c>
       <c r="D66" t="n">
-        <v>76.8610883596996</v>
+        <v>81.0247422811655</v>
       </c>
       <c r="E66" t="n">
-        <v>65.7870320345675</v>
+        <v>62.7423546694853</v>
       </c>
       <c r="F66" t="n">
-        <v>55.1443441989295</v>
+        <v>55.1011587163055</v>
       </c>
       <c r="G66" t="n">
-        <v>65.9308215310655</v>
+        <v>66.2894185556521</v>
       </c>
     </row>
     <row r="67">
@@ -2091,16 +2091,16 @@
         <v>68</v>
       </c>
       <c r="D67" t="n">
-        <v>61.8898781279654</v>
+        <v>67.4805488569595</v>
       </c>
       <c r="E67" t="n">
-        <v>61.4947741410894</v>
+        <v>60.3231479984247</v>
       </c>
       <c r="F67" t="n">
-        <v>51.0472333356257</v>
+        <v>50.8745864513793</v>
       </c>
       <c r="G67" t="n">
-        <v>58.1439618682268</v>
+        <v>59.5594277689212</v>
       </c>
     </row>
     <row r="68">
@@ -2114,16 +2114,16 @@
         <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>67.1473606172223</v>
+        <v>71.6622813389833</v>
       </c>
       <c r="E68" t="n">
-        <v>65.3785115841933</v>
+        <v>64.5895951937894</v>
       </c>
       <c r="F68" t="n">
-        <v>52.4129669321921</v>
+        <v>52.4031387996698</v>
       </c>
       <c r="G68" t="n">
-        <v>61.6462797112026</v>
+        <v>62.8850051108142</v>
       </c>
     </row>
     <row r="69">
@@ -2137,16 +2137,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>81.5806768656836</v>
+        <v>84.0808348647809</v>
       </c>
       <c r="E69" t="n">
-        <v>68.5810458865765</v>
+        <v>66.4988226023921</v>
       </c>
       <c r="F69" t="n">
-        <v>54.7323474956311</v>
+        <v>54.7307220087037</v>
       </c>
       <c r="G69" t="n">
-        <v>68.2980234159637</v>
+        <v>68.4367931586255</v>
       </c>
     </row>
     <row r="70">
@@ -2160,16 +2160,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>72.5128907376251</v>
+        <v>75.8505181020626</v>
       </c>
       <c r="E70" t="n">
-        <v>72.847271422954</v>
+        <v>70.8404885046548</v>
       </c>
       <c r="F70" t="n">
-        <v>56.4814480619458</v>
+        <v>56.4728053008772</v>
       </c>
       <c r="G70" t="n">
-        <v>67.2805367408416</v>
+        <v>67.7212706358649</v>
       </c>
     </row>
     <row r="71">
@@ -2183,16 +2183,16 @@
         <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>55.0410619918794</v>
+        <v>56.9342046572561</v>
       </c>
       <c r="E71" t="n">
-        <v>74.2669847927122</v>
+        <v>71.1755046566544</v>
       </c>
       <c r="F71" t="n">
-        <v>57.7010174283867</v>
+        <v>57.6869690099256</v>
       </c>
       <c r="G71" t="n">
-        <v>62.3363547376594</v>
+        <v>61.9322261079454</v>
       </c>
     </row>
     <row r="72">
@@ -2206,16 +2206,16 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>71.4343662173772</v>
+        <v>75.1873936513629</v>
       </c>
       <c r="E72" t="n">
-        <v>61.4624782686777</v>
+        <v>60.5611625309535</v>
       </c>
       <c r="F72" t="n">
-        <v>52.5316231635413</v>
+        <v>52.5094953277853</v>
       </c>
       <c r="G72" t="n">
-        <v>61.8094892165321</v>
+        <v>62.7526838367005</v>
       </c>
     </row>
     <row r="73">
@@ -2229,16 +2229,16 @@
         <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>75.2591445434702</v>
+        <v>79.5199185850546</v>
       </c>
       <c r="E73" t="n">
-        <v>64.2209142503949</v>
+        <v>63.4734365931912</v>
       </c>
       <c r="F73" t="n">
-        <v>56.3775767498045</v>
+        <v>56.3668978019833</v>
       </c>
       <c r="G73" t="n">
-        <v>65.2858785145565</v>
+        <v>66.4534176600764</v>
       </c>
     </row>
     <row r="74">
@@ -2252,16 +2252,16 @@
         <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>72.1416915719657</v>
+        <v>74.8206579755529</v>
       </c>
       <c r="E74" t="n">
-        <v>67.463551166631</v>
+        <v>65.8591449886531</v>
       </c>
       <c r="F74" t="n">
-        <v>55.0438575994034</v>
+        <v>55.0350636713494</v>
       </c>
       <c r="G74" t="n">
-        <v>64.883033446</v>
+        <v>65.2382888785184</v>
       </c>
     </row>
     <row r="75">
@@ -2275,16 +2275,16 @@
         <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>47.6546277425919</v>
+        <v>56.029248112909</v>
       </c>
       <c r="E75" t="n">
-        <v>58.0052535462387</v>
+        <v>56.8053203388451</v>
       </c>
       <c r="F75" t="n">
-        <v>42.5958511293345</v>
+        <v>42.5943970814233</v>
       </c>
       <c r="G75" t="n">
-        <v>49.4185774727217</v>
+        <v>51.8096551777258</v>
       </c>
     </row>
     <row r="76">
@@ -2298,16 +2298,16 @@
         <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>69.8910505607022</v>
+        <v>74.6638121950999</v>
       </c>
       <c r="E76" t="n">
-        <v>68.3226150654489</v>
+        <v>65.9792906753255</v>
       </c>
       <c r="F76" t="n">
-        <v>55.153127038182</v>
+        <v>55.1404741848088</v>
       </c>
       <c r="G76" t="n">
-        <v>64.4555975547777</v>
+        <v>65.2611923517447</v>
       </c>
     </row>
     <row r="77">
@@ -2321,16 +2321,16 @@
         <v>22</v>
       </c>
       <c r="D77" t="n">
-        <v>73.246122977249</v>
+        <v>73.0338027839568</v>
       </c>
       <c r="E77" t="n">
-        <v>74.4975668906083</v>
+        <v>73.8803886647679</v>
       </c>
       <c r="F77" t="n">
-        <v>65.5414427635799</v>
+        <v>65.5309702084078</v>
       </c>
       <c r="G77" t="n">
-        <v>71.095044210479</v>
+        <v>70.8150538857109</v>
       </c>
     </row>
     <row r="78">
@@ -2344,16 +2344,16 @@
         <v>24</v>
       </c>
       <c r="D78" t="n">
-        <v>75.3855373587274</v>
+        <v>80.2425828598046</v>
       </c>
       <c r="E78" t="n">
-        <v>65.7379300171505</v>
+        <v>63.0764839663885</v>
       </c>
       <c r="F78" t="n">
-        <v>50.9978548964355</v>
+        <v>50.9648163570346</v>
       </c>
       <c r="G78" t="n">
-        <v>64.0404407574378</v>
+        <v>64.7612943944092</v>
       </c>
     </row>
     <row r="79">
@@ -2367,16 +2367,16 @@
         <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>69.8181854615773</v>
+        <v>75.4036806099665</v>
       </c>
       <c r="E79" t="n">
-        <v>64.9130251478935</v>
+        <v>64.8737710044428</v>
       </c>
       <c r="F79" t="n">
-        <v>49.4112040716941</v>
+        <v>49.3834538844065</v>
       </c>
       <c r="G79" t="n">
-        <v>61.3808048937216</v>
+        <v>63.2203018329386</v>
       </c>
     </row>
     <row r="80">
@@ -2390,16 +2390,16 @@
         <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>36.4009976353207</v>
+        <v>46.2132162821184</v>
       </c>
       <c r="E80" t="n">
-        <v>56.095562948822</v>
+        <v>55.6641223079287</v>
       </c>
       <c r="F80" t="n">
-        <v>39.8308612909762</v>
+        <v>39.825711796814</v>
       </c>
       <c r="G80" t="n">
-        <v>44.1091406250396</v>
+        <v>47.2343501289537</v>
       </c>
     </row>
     <row r="81">
@@ -2413,16 +2413,16 @@
         <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>67.9705929455489</v>
+        <v>71.3148959473037</v>
       </c>
       <c r="E81" t="n">
-        <v>63.7487528332654</v>
+        <v>62.0237212481453</v>
       </c>
       <c r="F81" t="n">
-        <v>47.9991379787726</v>
+        <v>47.9893141462561</v>
       </c>
       <c r="G81" t="n">
-        <v>59.906161252529</v>
+        <v>60.4426437805684</v>
       </c>
     </row>
     <row r="82">
@@ -2436,16 +2436,16 @@
         <v>32</v>
       </c>
       <c r="D82" t="n">
-        <v>76.8445133993246</v>
+        <v>80.1706238776902</v>
       </c>
       <c r="E82" t="n">
-        <v>69.9472910048452</v>
+        <v>68.6059335478253</v>
       </c>
       <c r="F82" t="n">
-        <v>54.2199233922187</v>
+        <v>54.1916785692097</v>
       </c>
       <c r="G82" t="n">
-        <v>67.0039092654628</v>
+        <v>67.6560786649084</v>
       </c>
     </row>
     <row r="83">
@@ -2459,16 +2459,16 @@
         <v>34</v>
       </c>
       <c r="D83" t="n">
-        <v>67.1236594571038</v>
+        <v>72.3700306026693</v>
       </c>
       <c r="E83" t="n">
-        <v>66.4646520689583</v>
+        <v>67.0975193209224</v>
       </c>
       <c r="F83" t="n">
-        <v>52.5287735797873</v>
+        <v>52.5020598731194</v>
       </c>
       <c r="G83" t="n">
-        <v>62.0390283686164</v>
+        <v>63.989869932237</v>
       </c>
     </row>
     <row r="84">
@@ -2482,16 +2482,16 @@
         <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>60.132250710776</v>
+        <v>68.3368011379214</v>
       </c>
       <c r="E84" t="n">
-        <v>60.9185347050579</v>
+        <v>60.923752439375</v>
       </c>
       <c r="F84" t="n">
-        <v>49.0127927415023</v>
+        <v>48.9929495493655</v>
       </c>
       <c r="G84" t="n">
-        <v>56.6878593857787</v>
+        <v>59.4178343755539</v>
       </c>
     </row>
     <row r="85">
@@ -2505,16 +2505,16 @@
         <v>38</v>
       </c>
       <c r="D85" t="n">
-        <v>59.407827984032</v>
+        <v>63.0467991848259</v>
       </c>
       <c r="E85" t="n">
-        <v>62.9878837072589</v>
+        <v>64.164147054693</v>
       </c>
       <c r="F85" t="n">
-        <v>50.5262717096306</v>
+        <v>50.5023187177313</v>
       </c>
       <c r="G85" t="n">
-        <v>57.6406611336405</v>
+        <v>59.2377549857501</v>
       </c>
     </row>
     <row r="86">
@@ -2528,16 +2528,16 @@
         <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>70.4162913193128</v>
+        <v>73.2990031300983</v>
       </c>
       <c r="E86" t="n">
-        <v>62.30210844003</v>
+        <v>60.3807159098063</v>
       </c>
       <c r="F86" t="n">
-        <v>51.8434089535571</v>
+        <v>51.9903250219546</v>
       </c>
       <c r="G86" t="n">
-        <v>61.5206029043</v>
+        <v>61.8900146872864</v>
       </c>
     </row>
     <row r="87">
@@ -2551,16 +2551,16 @@
         <v>42</v>
       </c>
       <c r="D87" t="n">
-        <v>78.9009032188009</v>
+        <v>80.2798611885285</v>
       </c>
       <c r="E87" t="n">
-        <v>70.9063107462975</v>
+        <v>68.3170981749961</v>
       </c>
       <c r="F87" t="n">
-        <v>60.5315742850663</v>
+        <v>60.5140564995658</v>
       </c>
       <c r="G87" t="n">
-        <v>70.1129294167216</v>
+        <v>69.7036719543635</v>
       </c>
     </row>
     <row r="88">
@@ -2574,16 +2574,16 @@
         <v>44</v>
       </c>
       <c r="D88" t="n">
-        <v>47.4773460929092</v>
+        <v>57.9669955218107</v>
       </c>
       <c r="E88" t="n">
-        <v>58.1548251919668</v>
+        <v>56.8712688875894</v>
       </c>
       <c r="F88" t="n">
-        <v>40.1244689560052</v>
+        <v>40.116196644991</v>
       </c>
       <c r="G88" t="n">
-        <v>48.5855467469604</v>
+        <v>51.6514870181304</v>
       </c>
     </row>
     <row r="89">
@@ -2597,16 +2597,16 @@
         <v>46</v>
       </c>
       <c r="D89" t="n">
-        <v>60.9382151614342</v>
+        <v>65.5413581887945</v>
       </c>
       <c r="E89" t="n">
-        <v>60.9728171016268</v>
+        <v>61.7758639302141</v>
       </c>
       <c r="F89" t="n">
-        <v>48.3623919311977</v>
+        <v>48.3519813006193</v>
       </c>
       <c r="G89" t="n">
-        <v>56.7578080647529</v>
+        <v>58.5564011398759</v>
       </c>
     </row>
     <row r="90">
@@ -2620,16 +2620,16 @@
         <v>48</v>
       </c>
       <c r="D90" t="n">
-        <v>78.3549255621741</v>
+        <v>80.2222946914256</v>
       </c>
       <c r="E90" t="n">
-        <v>73.0595683796646</v>
+        <v>70.6487724840261</v>
       </c>
       <c r="F90" t="n">
-        <v>55.8145082614715</v>
+        <v>55.8099631573972</v>
       </c>
       <c r="G90" t="n">
-        <v>69.07633406777</v>
+        <v>68.8936767776163</v>
       </c>
     </row>
     <row r="91">
@@ -2643,16 +2643,16 @@
         <v>50</v>
       </c>
       <c r="D91" t="n">
-        <v>75.5575711177639</v>
+        <v>79.0719068390069</v>
       </c>
       <c r="E91" t="n">
-        <v>72.0593222141666</v>
+        <v>69.923546986279</v>
       </c>
       <c r="F91" t="n">
-        <v>51.8257090353736</v>
+        <v>51.7069264740143</v>
       </c>
       <c r="G91" t="n">
-        <v>66.4808674557681</v>
+        <v>66.9007934331</v>
       </c>
     </row>
     <row r="92">
@@ -2666,16 +2666,16 @@
         <v>52</v>
       </c>
       <c r="D92" t="n">
-        <v>66.7649512217275</v>
+        <v>70.6844083446612</v>
       </c>
       <c r="E92" t="n">
-        <v>61.7860636968518</v>
+        <v>60.2368096855889</v>
       </c>
       <c r="F92" t="n">
-        <v>50.9903967353206</v>
+        <v>50.9799603524739</v>
       </c>
       <c r="G92" t="n">
-        <v>59.8471372179666</v>
+        <v>60.6337261275747</v>
       </c>
     </row>
     <row r="93">
@@ -2689,16 +2689,16 @@
         <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>74.4861398510583</v>
+        <v>79.32679342812</v>
       </c>
       <c r="E93" t="n">
-        <v>69.846160401335</v>
+        <v>66.7206559493114</v>
       </c>
       <c r="F93" t="n">
-        <v>59.5299294528692</v>
+        <v>59.3321198981683</v>
       </c>
       <c r="G93" t="n">
-        <v>67.9540765684208</v>
+        <v>68.4598564251999</v>
       </c>
     </row>
     <row r="94">
@@ -2712,16 +2712,16 @@
         <v>56</v>
       </c>
       <c r="D94" t="n">
-        <v>77.0157992276933</v>
+        <v>79.961425269598</v>
       </c>
       <c r="E94" t="n">
-        <v>70.899272541428</v>
+        <v>67.3523977542758</v>
       </c>
       <c r="F94" t="n">
-        <v>58.3250339560669</v>
+        <v>58.3215377625808</v>
       </c>
       <c r="G94" t="n">
-        <v>68.7467019083961</v>
+        <v>68.5451202621516</v>
       </c>
     </row>
     <row r="95">
@@ -2735,16 +2735,16 @@
         <v>58</v>
       </c>
       <c r="D95" t="n">
-        <v>59.0987277099664</v>
+        <v>63.6379476283506</v>
       </c>
       <c r="E95" t="n">
-        <v>58.268127090714</v>
+        <v>59.7062987261814</v>
       </c>
       <c r="F95" t="n">
-        <v>50.8001800483592</v>
+        <v>50.8204819320988</v>
       </c>
       <c r="G95" t="n">
-        <v>56.0556782830132</v>
+        <v>58.0549094288769</v>
       </c>
     </row>
     <row r="96">
@@ -2758,16 +2758,16 @@
         <v>60</v>
       </c>
       <c r="D96" t="n">
-        <v>73.3784056301213</v>
+        <v>76.0958231461031</v>
       </c>
       <c r="E96" t="n">
-        <v>65.0335960818995</v>
+        <v>64.0088499759318</v>
       </c>
       <c r="F96" t="n">
-        <v>53.8806925271174</v>
+        <v>53.7176313929052</v>
       </c>
       <c r="G96" t="n">
-        <v>64.0975647463794</v>
+        <v>64.6074348383133</v>
       </c>
     </row>
     <row r="97">
@@ -2781,16 +2781,16 @@
         <v>62</v>
       </c>
       <c r="D97" t="n">
-        <v>67.7945294553211</v>
+        <v>72.1331972533865</v>
       </c>
       <c r="E97" t="n">
-        <v>61.2407113540445</v>
+        <v>62.652774844922</v>
       </c>
       <c r="F97" t="n">
-        <v>51.2967127179503</v>
+        <v>51.2837686527786</v>
       </c>
       <c r="G97" t="n">
-        <v>60.110651175772</v>
+        <v>62.023246917029</v>
       </c>
     </row>
     <row r="98">
@@ -2804,16 +2804,16 @@
         <v>64</v>
       </c>
       <c r="D98" t="n">
-        <v>63.8582931745229</v>
+        <v>66.4186967427375</v>
       </c>
       <c r="E98" t="n">
-        <v>55.162138422948</v>
+        <v>55.4525413610931</v>
       </c>
       <c r="F98" t="n">
-        <v>46.2912008865012</v>
+        <v>45.92582907588</v>
       </c>
       <c r="G98" t="n">
-        <v>55.1038774946574</v>
+        <v>55.9323557265702</v>
       </c>
     </row>
     <row r="99">
@@ -2827,16 +2827,16 @@
         <v>66</v>
       </c>
       <c r="D99" t="n">
-        <v>80.7391653908956</v>
+        <v>82.3843991919524</v>
       </c>
       <c r="E99" t="n">
-        <v>65.9261968153551</v>
+        <v>63.3915464877425</v>
       </c>
       <c r="F99" t="n">
-        <v>57.160603148109</v>
+        <v>57.1315269221075</v>
       </c>
       <c r="G99" t="n">
-        <v>67.9419884514532</v>
+        <v>67.6358242006008</v>
       </c>
     </row>
     <row r="100">
@@ -2850,16 +2850,16 @@
         <v>68</v>
       </c>
       <c r="D100" t="n">
-        <v>59.2468996948346</v>
+        <v>66.0167094740259</v>
       </c>
       <c r="E100" t="n">
-        <v>61.6153457155947</v>
+        <v>60.1604364605042</v>
       </c>
       <c r="F100" t="n">
-        <v>50.6827080044105</v>
+        <v>50.5324505258092</v>
       </c>
       <c r="G100" t="n">
-        <v>57.18165113828</v>
+        <v>58.9031988201131</v>
       </c>
     </row>
     <row r="101">
@@ -2873,16 +2873,16 @@
         <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>66.2966029913639</v>
+        <v>70.7447768199256</v>
       </c>
       <c r="E101" t="n">
-        <v>66.2670550771273</v>
+        <v>64.8996681159666</v>
       </c>
       <c r="F101" t="n">
-        <v>56.5626521406369</v>
+        <v>56.5595103659808</v>
       </c>
       <c r="G101" t="n">
-        <v>63.0421034030427</v>
+        <v>64.0679851006243</v>
       </c>
     </row>
     <row r="102">
@@ -2896,16 +2896,16 @@
         <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>79.8060145853586</v>
+        <v>81.8275466621555</v>
       </c>
       <c r="E102" t="n">
-        <v>71.2989696983998</v>
+        <v>68.3222004432225</v>
       </c>
       <c r="F102" t="n">
-        <v>61.5498697491339</v>
+        <v>61.5479903445256</v>
       </c>
       <c r="G102" t="n">
-        <v>70.8849513442974</v>
+        <v>70.5659124833012</v>
       </c>
     </row>
     <row r="103">
@@ -2919,16 +2919,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>69.2321781118223</v>
+        <v>72.5154405486918</v>
       </c>
       <c r="E103" t="n">
-        <v>73.2360418883285</v>
+        <v>70.6228369944615</v>
       </c>
       <c r="F103" t="n">
-        <v>60.7515009757568</v>
+        <v>60.7468396602092</v>
       </c>
       <c r="G103" t="n">
-        <v>67.7399069919692</v>
+        <v>67.9617057344542</v>
       </c>
     </row>
     <row r="104">
@@ -2942,16 +2942,16 @@
         <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>57.6823761600597</v>
+        <v>60.9069622762906</v>
       </c>
       <c r="E104" t="n">
-        <v>72.6672989797922</v>
+        <v>69.6079655461348</v>
       </c>
       <c r="F104" t="n">
-        <v>62.3649439470488</v>
+        <v>62.3468640518915</v>
       </c>
       <c r="G104" t="n">
-        <v>64.2382063623002</v>
+        <v>64.2872639581056</v>
       </c>
     </row>
     <row r="105">
@@ -2965,16 +2965,16 @@
         <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>69.1859332154022</v>
+        <v>74.2983318859775</v>
       </c>
       <c r="E105" t="n">
-        <v>60.1290181841121</v>
+        <v>59.1499103334261</v>
       </c>
       <c r="F105" t="n">
-        <v>55.4331452362</v>
+        <v>55.4184852777537</v>
       </c>
       <c r="G105" t="n">
-        <v>61.5826988785714</v>
+        <v>62.9555758323857</v>
       </c>
     </row>
     <row r="106">
@@ -2988,16 +2988,16 @@
         <v>14</v>
       </c>
       <c r="D106" t="n">
-        <v>74.509172442547</v>
+        <v>78.3820256293775</v>
       </c>
       <c r="E106" t="n">
-        <v>65.4979809541404</v>
+        <v>63.6140560906933</v>
       </c>
       <c r="F106" t="n">
-        <v>59.9761241121599</v>
+        <v>59.963058560468</v>
       </c>
       <c r="G106" t="n">
-        <v>66.6610925029491</v>
+        <v>67.3197134268463</v>
       </c>
     </row>
     <row r="107">
@@ -3011,16 +3011,16 @@
         <v>16</v>
       </c>
       <c r="D107" t="n">
-        <v>69.9542388627753</v>
+        <v>73.7711095146333</v>
       </c>
       <c r="E107" t="n">
-        <v>68.195506332766</v>
+        <v>65.7235158341473</v>
       </c>
       <c r="F107" t="n">
-        <v>61.4521963265511</v>
+        <v>61.4540998276333</v>
       </c>
       <c r="G107" t="n">
-        <v>66.5339805073641</v>
+        <v>66.9829083921379</v>
       </c>
     </row>
     <row r="108">
@@ -3034,16 +3034,16 @@
         <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>45.5386605600445</v>
+        <v>55.5295170086239</v>
       </c>
       <c r="E108" t="n">
-        <v>60.0166378993773</v>
+        <v>58.6919788153999</v>
       </c>
       <c r="F108" t="n">
-        <v>42.3628087225159</v>
+        <v>42.3709342311619</v>
       </c>
       <c r="G108" t="n">
-        <v>49.3060357273126</v>
+        <v>52.1974766850619</v>
       </c>
     </row>
     <row r="109">
@@ -3057,16 +3057,16 @@
         <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>68.5026299969747</v>
+        <v>73.0204317475665</v>
       </c>
       <c r="E109" t="n">
-        <v>70.4135788517424</v>
+        <v>66.6915614737962</v>
       </c>
       <c r="F109" t="n">
-        <v>59.8378416243175</v>
+        <v>59.8286787896065</v>
       </c>
       <c r="G109" t="n">
-        <v>66.2513501576782</v>
+        <v>66.5135573369897</v>
       </c>
     </row>
     <row r="110">
@@ -3080,16 +3080,16 @@
         <v>22</v>
       </c>
       <c r="D110" t="n">
-        <v>71.4414229834455</v>
+        <v>70.8871233171558</v>
       </c>
       <c r="E110" t="n">
-        <v>75.8141028653985</v>
+        <v>74.3721965635346</v>
       </c>
       <c r="F110" t="n">
-        <v>75.3820478824186</v>
+        <v>75.3761887725111</v>
       </c>
       <c r="G110" t="n">
-        <v>74.2125245770875</v>
+        <v>73.5451695510672</v>
       </c>
     </row>
     <row r="111">
@@ -3103,16 +3103,16 @@
         <v>24</v>
       </c>
       <c r="D111" t="n">
-        <v>71.4728772842208</v>
+        <v>78.99470402455</v>
       </c>
       <c r="E111" t="n">
-        <v>67.7923575356999</v>
+        <v>64.0427742831201</v>
       </c>
       <c r="F111" t="n">
-        <v>55.2672175497756</v>
+        <v>55.2508231400792</v>
       </c>
       <c r="G111" t="n">
-        <v>64.8441507898987</v>
+        <v>66.0961004825831</v>
       </c>
     </row>
     <row r="112">
@@ -3126,16 +3126,16 @@
         <v>26</v>
       </c>
       <c r="D112" t="n">
-        <v>70.743617098594</v>
+        <v>73.8774377045194</v>
       </c>
       <c r="E112" t="n">
-        <v>65.4379648575613</v>
+        <v>64.7200579840178</v>
       </c>
       <c r="F112" t="n">
-        <v>53.0143012725181</v>
+        <v>52.9972106288371</v>
       </c>
       <c r="G112" t="n">
-        <v>63.0652944095578</v>
+        <v>63.8649021057914</v>
       </c>
     </row>
     <row r="113">
@@ -3149,16 +3149,16 @@
         <v>28</v>
       </c>
       <c r="D113" t="n">
-        <v>37.9395965554546</v>
+        <v>48.0279958089044</v>
       </c>
       <c r="E113" t="n">
-        <v>56.9974353195836</v>
+        <v>55.9903777889998</v>
       </c>
       <c r="F113" t="n">
-        <v>41.6013443227485</v>
+        <v>41.6025910505258</v>
       </c>
       <c r="G113" t="n">
-        <v>45.5127920659289</v>
+        <v>48.5403215494767</v>
       </c>
     </row>
     <row r="114">
@@ -3172,16 +3172,16 @@
         <v>30</v>
       </c>
       <c r="D114" t="n">
-        <v>67.8756565801322</v>
+        <v>70.6600756394091</v>
       </c>
       <c r="E114" t="n">
-        <v>64.6042836050971</v>
+        <v>62.7192362239333</v>
       </c>
       <c r="F114" t="n">
-        <v>52.0267776631951</v>
+        <v>52.0178916594109</v>
       </c>
       <c r="G114" t="n">
-        <v>61.5022392828081</v>
+        <v>61.7990678409178</v>
       </c>
     </row>
     <row r="115">
@@ -3195,16 +3195,16 @@
         <v>32</v>
       </c>
       <c r="D115" t="n">
-        <v>74.2848205353726</v>
+        <v>77.4971465309619</v>
       </c>
       <c r="E115" t="n">
-        <v>72.047789272072</v>
+        <v>69.5721934275236</v>
       </c>
       <c r="F115" t="n">
-        <v>60.9812779796286</v>
+        <v>60.9608356509579</v>
       </c>
       <c r="G115" t="n">
-        <v>69.1046292623577</v>
+        <v>69.3433918698145</v>
       </c>
     </row>
     <row r="116">
@@ -3218,16 +3218,16 @@
         <v>34</v>
       </c>
       <c r="D116" t="n">
-        <v>65.2589218593192</v>
+        <v>70.5320202124794</v>
       </c>
       <c r="E116" t="n">
-        <v>67.8186321076884</v>
+        <v>68.1723072149422</v>
       </c>
       <c r="F116" t="n">
-        <v>55.8918389433551</v>
+        <v>55.8880084796079</v>
       </c>
       <c r="G116" t="n">
-        <v>62.9897976367876</v>
+        <v>64.8641119690098</v>
       </c>
     </row>
     <row r="117">
@@ -3241,16 +3241,16 @@
         <v>36</v>
       </c>
       <c r="D117" t="n">
-        <v>59.6970493510417</v>
+        <v>67.4301470968514</v>
       </c>
       <c r="E117" t="n">
-        <v>62.6804730195379</v>
+        <v>62.1753226317933</v>
       </c>
       <c r="F117" t="n">
-        <v>52.3999108192424</v>
+        <v>52.3805467377733</v>
       </c>
       <c r="G117" t="n">
-        <v>58.2591443966073</v>
+        <v>60.662005488806</v>
       </c>
     </row>
     <row r="118">
@@ -3264,16 +3264,16 @@
         <v>38</v>
       </c>
       <c r="D118" t="n">
-        <v>60.5867984400783</v>
+        <v>62.7761016188129</v>
       </c>
       <c r="E118" t="n">
-        <v>65.1224111734233</v>
+        <v>65.4703515371562</v>
       </c>
       <c r="F118" t="n">
-        <v>54.7977787542888</v>
+        <v>54.783136988467</v>
       </c>
       <c r="G118" t="n">
-        <v>60.1689961225968</v>
+        <v>61.0098633814787</v>
       </c>
     </row>
     <row r="119">
@@ -3287,16 +3287,16 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>66.5366440455295</v>
+        <v>72.0872688447906</v>
       </c>
       <c r="E119" t="n">
-        <v>65.2461609135435</v>
+        <v>61.8215273333273</v>
       </c>
       <c r="F119" t="n">
-        <v>56.1561057049506</v>
+        <v>56.1631112537618</v>
       </c>
       <c r="G119" t="n">
-        <v>62.6463035546745</v>
+        <v>63.3573024772932</v>
       </c>
     </row>
     <row r="120">
@@ -3310,16 +3310,16 @@
         <v>42</v>
       </c>
       <c r="D120" t="n">
-        <v>78.3937053562307</v>
+        <v>80.8469224307375</v>
       </c>
       <c r="E120" t="n">
-        <v>72.053436211709</v>
+        <v>68.6420576556789</v>
       </c>
       <c r="F120" t="n">
-        <v>65.6415820267851</v>
+        <v>65.6256117372948</v>
       </c>
       <c r="G120" t="n">
-        <v>72.0295745315749</v>
+        <v>71.704863941237</v>
       </c>
     </row>
     <row r="121">
@@ -3333,16 +3333,16 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>47.8895828273609</v>
+        <v>58.1018197474868</v>
       </c>
       <c r="E121" t="n">
-        <v>57.1730353260569</v>
+        <v>55.892444167418</v>
       </c>
       <c r="F121" t="n">
-        <v>44.9321962995757</v>
+        <v>44.9256792436221</v>
       </c>
       <c r="G121" t="n">
-        <v>49.9982714843311</v>
+        <v>52.9733143861756</v>
       </c>
     </row>
     <row r="122">
@@ -3356,16 +3356,16 @@
         <v>46</v>
       </c>
       <c r="D122" t="n">
-        <v>59.9999533984746</v>
+        <v>64.2803672808284</v>
       </c>
       <c r="E122" t="n">
-        <v>62.2103051598723</v>
+        <v>62.3560950238544</v>
       </c>
       <c r="F122" t="n">
-        <v>54.6415650511674</v>
+        <v>54.6370171317371</v>
       </c>
       <c r="G122" t="n">
-        <v>58.9506078698381</v>
+        <v>60.4244931454733</v>
       </c>
     </row>
     <row r="123">
@@ -3379,16 +3379,16 @@
         <v>48</v>
       </c>
       <c r="D123" t="n">
-        <v>74.591237855513</v>
+        <v>77.2186376362339</v>
       </c>
       <c r="E123" t="n">
-        <v>74.1276689230659</v>
+        <v>71.1712101456337</v>
       </c>
       <c r="F123" t="n">
-        <v>59.9422781098053</v>
+        <v>59.9336284669191</v>
       </c>
       <c r="G123" t="n">
-        <v>69.553728296128</v>
+        <v>69.4411587495955</v>
       </c>
     </row>
     <row r="124">
@@ -3402,16 +3402,16 @@
         <v>50</v>
       </c>
       <c r="D124" t="n">
-        <v>70.3927471934938</v>
+        <v>75.1121580019279</v>
       </c>
       <c r="E124" t="n">
-        <v>73.5553743287344</v>
+        <v>71.0252922553635</v>
       </c>
       <c r="F124" t="n">
-        <v>56.1617299817326</v>
+        <v>56.1608598585365</v>
       </c>
       <c r="G124" t="n">
-        <v>66.7032838346536</v>
+        <v>67.4327700386093</v>
       </c>
     </row>
     <row r="125">
@@ -3425,16 +3425,16 @@
         <v>52</v>
       </c>
       <c r="D125" t="n">
-        <v>68.0968956207535</v>
+        <v>70.3728578684527</v>
       </c>
       <c r="E125" t="n">
-        <v>61.8385241176533</v>
+        <v>59.9804961741815</v>
       </c>
       <c r="F125" t="n">
-        <v>55.8361665793182</v>
+        <v>55.8281229403415</v>
       </c>
       <c r="G125" t="n">
-        <v>61.9238621059083</v>
+        <v>62.0604923276586</v>
       </c>
     </row>
     <row r="126">
@@ -3448,16 +3448,16 @@
         <v>54</v>
       </c>
       <c r="D126" t="n">
-        <v>73.2653029783902</v>
+        <v>78.1482039845869</v>
       </c>
       <c r="E126" t="n">
-        <v>70.6162095116558</v>
+        <v>66.9395029202558</v>
       </c>
       <c r="F126" t="n">
-        <v>61.0204181212759</v>
+        <v>61.0189708791548</v>
       </c>
       <c r="G126" t="n">
-        <v>68.3006435371073</v>
+        <v>68.7022259279992</v>
       </c>
     </row>
     <row r="127">
@@ -3471,16 +3471,16 @@
         <v>56</v>
       </c>
       <c r="D127" t="n">
-        <v>78.1016443278731</v>
+        <v>79.9470272446923</v>
       </c>
       <c r="E127" t="n">
-        <v>71.7008835937505</v>
+        <v>66.8992466398514</v>
       </c>
       <c r="F127" t="n">
-        <v>61.6806815202575</v>
+        <v>61.6740645036398</v>
       </c>
       <c r="G127" t="n">
-        <v>70.4944031472937</v>
+        <v>69.5067794627278</v>
       </c>
     </row>
     <row r="128">
@@ -3494,16 +3494,16 @@
         <v>58</v>
       </c>
       <c r="D128" t="n">
-        <v>58.2111876821059</v>
+        <v>62.0706332036923</v>
       </c>
       <c r="E128" t="n">
-        <v>57.1944613420037</v>
+        <v>58.0930273533074</v>
       </c>
       <c r="F128" t="n">
-        <v>51.6885501408319</v>
+        <v>51.666464045092</v>
       </c>
       <c r="G128" t="n">
-        <v>55.6980663883138</v>
+        <v>57.2767082006972</v>
       </c>
     </row>
     <row r="129">
@@ -3517,16 +3517,16 @@
         <v>60</v>
       </c>
       <c r="D129" t="n">
-        <v>75.1105555527156</v>
+        <v>77.3392436823862</v>
       </c>
       <c r="E129" t="n">
-        <v>66.3702462653976</v>
+        <v>64.6246991511461</v>
       </c>
       <c r="F129" t="n">
-        <v>60.0316798400448</v>
+        <v>60.0097166914554</v>
       </c>
       <c r="G129" t="n">
-        <v>67.170827219386</v>
+        <v>67.3245531749959</v>
       </c>
     </row>
     <row r="130">
@@ -3540,16 +3540,16 @@
         <v>62</v>
       </c>
       <c r="D130" t="n">
-        <v>68.0190260399621</v>
+        <v>71.7221140229856</v>
       </c>
       <c r="E130" t="n">
-        <v>63.0866229669517</v>
+        <v>64.246561446813</v>
       </c>
       <c r="F130" t="n">
-        <v>54.4482063264312</v>
+        <v>54.4402019381286</v>
       </c>
       <c r="G130" t="n">
-        <v>61.851285111115</v>
+        <v>63.4696258026424</v>
       </c>
     </row>
     <row r="131">
@@ -3563,16 +3563,16 @@
         <v>64</v>
       </c>
       <c r="D131" t="n">
-        <v>64.6877028859928</v>
+        <v>67.1679598899114</v>
       </c>
       <c r="E131" t="n">
-        <v>54.8160195300732</v>
+        <v>54.7473895941907</v>
       </c>
       <c r="F131" t="n">
-        <v>49.9544997923579</v>
+        <v>49.9549921022816</v>
       </c>
       <c r="G131" t="n">
-        <v>56.4860740694746</v>
+        <v>57.2901138621279</v>
       </c>
     </row>
     <row r="132">
@@ -3586,16 +3586,16 @@
         <v>66</v>
       </c>
       <c r="D132" t="n">
-        <v>76.4906121816886</v>
+        <v>80.2772361370062</v>
       </c>
       <c r="E132" t="n">
-        <v>66.7166572071335</v>
+        <v>63.1651577445701</v>
       </c>
       <c r="F132" t="n">
-        <v>59.5298397076857</v>
+        <v>59.5028359628153</v>
       </c>
       <c r="G132" t="n">
-        <v>67.5790363655026</v>
+        <v>67.6484099481305</v>
       </c>
     </row>
     <row r="133">
@@ -3609,16 +3609,16 @@
         <v>68</v>
       </c>
       <c r="D133" t="n">
-        <v>57.6041831204555</v>
+        <v>64.8811345293426</v>
       </c>
       <c r="E133" t="n">
-        <v>63.4478523777782</v>
+        <v>61.4311158457411</v>
       </c>
       <c r="F133" t="n">
-        <v>56.661545156064</v>
+        <v>56.6556787257255</v>
       </c>
       <c r="G133" t="n">
-        <v>59.2378602180992</v>
+        <v>60.9893097002697</v>
       </c>
     </row>
     <row r="134">
@@ -3632,16 +3632,16 @@
         <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>66.6504596097719</v>
+        <v>69.9656696600252</v>
       </c>
       <c r="E134" t="n">
-        <v>65.880398296791</v>
+        <v>64.5801948099532</v>
       </c>
       <c r="F134" t="n">
-        <v>57.0488663411566</v>
+        <v>57.0515370987437</v>
       </c>
       <c r="G134" t="n">
-        <v>63.1932414159065</v>
+        <v>63.8658005229074</v>
       </c>
     </row>
     <row r="135">
@@ -3655,16 +3655,16 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>79.9338296818985</v>
+        <v>82.2339163924599</v>
       </c>
       <c r="E135" t="n">
-        <v>71.3359631671105</v>
+        <v>68.4264944192609</v>
       </c>
       <c r="F135" t="n">
-        <v>62.1083714883968</v>
+        <v>62.090189307208</v>
       </c>
       <c r="G135" t="n">
-        <v>71.1260547791353</v>
+        <v>70.9168667063096</v>
       </c>
     </row>
     <row r="136">
@@ -3678,16 +3678,16 @@
         <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>69.6395737224438</v>
+        <v>72.2114808951945</v>
       </c>
       <c r="E136" t="n">
-        <v>73.2066583709357</v>
+        <v>70.6256566810688</v>
       </c>
       <c r="F136" t="n">
-        <v>61.4278913337493</v>
+        <v>61.4267930085897</v>
       </c>
       <c r="G136" t="n">
-        <v>68.0913744757096</v>
+        <v>68.0879768616177</v>
       </c>
     </row>
     <row r="137">
@@ -3701,16 +3701,16 @@
         <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>58.0257541858845</v>
+        <v>61.3420349478029</v>
       </c>
       <c r="E137" t="n">
-        <v>72.1770772437195</v>
+        <v>69.330115815825</v>
       </c>
       <c r="F137" t="n">
-        <v>62.4703760134528</v>
+        <v>62.4674790055041</v>
       </c>
       <c r="G137" t="n">
-        <v>64.2244024810189</v>
+        <v>64.3798765897106</v>
       </c>
     </row>
     <row r="138">
@@ -3724,16 +3724,16 @@
         <v>12</v>
       </c>
       <c r="D138" t="n">
-        <v>69.4376188204052</v>
+        <v>72.4935248714821</v>
       </c>
       <c r="E138" t="n">
-        <v>58.5889464384899</v>
+        <v>57.672501037403</v>
       </c>
       <c r="F138" t="n">
-        <v>55.4132337714716</v>
+        <v>55.3979228219458</v>
       </c>
       <c r="G138" t="n">
-        <v>61.1465996767889</v>
+        <v>61.8546495769436</v>
       </c>
     </row>
     <row r="139">
@@ -3747,16 +3747,16 @@
         <v>14</v>
       </c>
       <c r="D139" t="n">
-        <v>74.6688147486159</v>
+        <v>77.9490196095518</v>
       </c>
       <c r="E139" t="n">
-        <v>64.4502993909022</v>
+        <v>63.1006279999138</v>
       </c>
       <c r="F139" t="n">
-        <v>61.8809222123498</v>
+        <v>61.8749755330965</v>
       </c>
       <c r="G139" t="n">
-        <v>67.0000121172893</v>
+        <v>67.6415410475207</v>
       </c>
     </row>
     <row r="140">
@@ -3770,16 +3770,16 @@
         <v>16</v>
       </c>
       <c r="D140" t="n">
-        <v>66.2675122259364</v>
+        <v>69.2656225262376</v>
       </c>
       <c r="E140" t="n">
-        <v>65.9513279859055</v>
+        <v>63.9088974159381</v>
       </c>
       <c r="F140" t="n">
-        <v>60.5486734903707</v>
+        <v>60.5481711994259</v>
       </c>
       <c r="G140" t="n">
-        <v>64.2558379007375</v>
+        <v>64.5742303805339</v>
       </c>
     </row>
     <row r="141">
@@ -3793,16 +3793,16 @@
         <v>18</v>
       </c>
       <c r="D141" t="n">
-        <v>53.0234809162502</v>
+        <v>56.3648958134649</v>
       </c>
       <c r="E141" t="n">
-        <v>59.8623976536765</v>
+        <v>58.4376622572378</v>
       </c>
       <c r="F141" t="n">
-        <v>41.6268647884884</v>
+        <v>41.6491301772434</v>
       </c>
       <c r="G141" t="n">
-        <v>51.5042477861384</v>
+        <v>52.1505627493154</v>
       </c>
     </row>
     <row r="142">
@@ -3816,16 +3816,16 @@
         <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>67.5642930806803</v>
+        <v>71.8946923451435</v>
       </c>
       <c r="E142" t="n">
-        <v>69.977261015583</v>
+        <v>66.4701278031183</v>
       </c>
       <c r="F142" t="n">
-        <v>60.2005997208906</v>
+        <v>60.2067683882871</v>
       </c>
       <c r="G142" t="n">
-        <v>65.9140512723846</v>
+        <v>66.1905295121829</v>
       </c>
     </row>
     <row r="143">
@@ -3839,16 +3839,16 @@
         <v>22</v>
       </c>
       <c r="D143" t="n">
-        <v>64.5099264951583</v>
+        <v>69.5635896204931</v>
       </c>
       <c r="E143" t="n">
-        <v>75.6903944873934</v>
+        <v>74.4167546813967</v>
       </c>
       <c r="F143" t="n">
-        <v>74.3637765964775</v>
+        <v>74.3672939270848</v>
       </c>
       <c r="G143" t="n">
-        <v>71.5213658596764</v>
+        <v>72.7825460763248</v>
       </c>
     </row>
     <row r="144">
@@ -3862,16 +3862,16 @@
         <v>24</v>
       </c>
       <c r="D144" t="n">
-        <v>72.3394433961417</v>
+        <v>76.6994867971517</v>
       </c>
       <c r="E144" t="n">
-        <v>66.8070687515867</v>
+        <v>63.5483170028637</v>
       </c>
       <c r="F144" t="n">
-        <v>57.5195524660179</v>
+        <v>57.5084436463784</v>
       </c>
       <c r="G144" t="n">
-        <v>65.5553548712488</v>
+        <v>65.9187491487979</v>
       </c>
     </row>
     <row r="145">
@@ -3885,16 +3885,16 @@
         <v>26</v>
       </c>
       <c r="D145" t="n">
-        <v>69.4359878521405</v>
+        <v>72.4685100529714</v>
       </c>
       <c r="E145" t="n">
-        <v>64.4610437593725</v>
+        <v>64.0677911967663</v>
       </c>
       <c r="F145" t="n">
-        <v>52.772986147691</v>
+        <v>52.7610813586309</v>
       </c>
       <c r="G145" t="n">
-        <v>62.223339253068</v>
+        <v>63.0991275361229</v>
       </c>
     </row>
     <row r="146">
@@ -3908,16 +3908,16 @@
         <v>28</v>
       </c>
       <c r="D146" t="n">
-        <v>41.8956003297268</v>
+        <v>46.1193647571713</v>
       </c>
       <c r="E146" t="n">
-        <v>55.6886925599422</v>
+        <v>54.8743822287629</v>
       </c>
       <c r="F146" t="n">
-        <v>41.4902019266009</v>
+        <v>41.5133096359075</v>
       </c>
       <c r="G146" t="n">
-        <v>46.3581649387566</v>
+        <v>47.5023522072805</v>
       </c>
     </row>
     <row r="147">
@@ -3931,16 +3931,16 @@
         <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>66.5943998233989</v>
+        <v>69.6339236091622</v>
       </c>
       <c r="E147" t="n">
-        <v>65.1826749685311</v>
+        <v>62.8812459647577</v>
       </c>
       <c r="F147" t="n">
-        <v>54.3027681126</v>
+        <v>54.2987943289732</v>
       </c>
       <c r="G147" t="n">
-        <v>62.02661430151</v>
+        <v>62.2713213009644</v>
       </c>
     </row>
     <row r="148">
@@ -3954,16 +3954,16 @@
         <v>32</v>
       </c>
       <c r="D148" t="n">
-        <v>74.5126223834097</v>
+        <v>77.5387655910127</v>
       </c>
       <c r="E148" t="n">
-        <v>72.0771497946342</v>
+        <v>69.5997306696551</v>
       </c>
       <c r="F148" t="n">
-        <v>61.1740685184843</v>
+        <v>61.16784839552</v>
       </c>
       <c r="G148" t="n">
-        <v>69.2546135655094</v>
+        <v>69.4354482187293</v>
       </c>
     </row>
     <row r="149">
@@ -3977,16 +3977,16 @@
         <v>34</v>
       </c>
       <c r="D149" t="n">
-        <v>65.9481970789202</v>
+        <v>69.1420438076356</v>
       </c>
       <c r="E149" t="n">
-        <v>67.2930685186991</v>
+        <v>67.8447836501905</v>
       </c>
       <c r="F149" t="n">
-        <v>56.2287997070159</v>
+        <v>56.2251532172407</v>
       </c>
       <c r="G149" t="n">
-        <v>63.1566884348784</v>
+        <v>64.4039935583556</v>
       </c>
     </row>
     <row r="150">
@@ -4000,16 +4000,16 @@
         <v>36</v>
       </c>
       <c r="D150" t="n">
-        <v>62.9554669598692</v>
+        <v>66.0735505109021</v>
       </c>
       <c r="E150" t="n">
-        <v>62.1385734015058</v>
+        <v>61.9228258402508</v>
       </c>
       <c r="F150" t="n">
-        <v>53.0060337505025</v>
+        <v>52.9986392393324</v>
       </c>
       <c r="G150" t="n">
-        <v>59.3666913706258</v>
+        <v>60.3316718634951</v>
       </c>
     </row>
     <row r="151">
@@ -4023,16 +4023,16 @@
         <v>38</v>
       </c>
       <c r="D151" t="n">
-        <v>57.9850406507839</v>
+        <v>60.2672043678051</v>
       </c>
       <c r="E151" t="n">
-        <v>64.588943402026</v>
+        <v>64.4995957418159</v>
       </c>
       <c r="F151" t="n">
-        <v>56.6708348829971</v>
+        <v>56.6681080416649</v>
       </c>
       <c r="G151" t="n">
-        <v>59.7482729786023</v>
+        <v>60.4783027170953</v>
       </c>
     </row>
     <row r="152">
@@ -4046,16 +4046,16 @@
         <v>40</v>
       </c>
       <c r="D152" t="n">
-        <v>70.4449528422815</v>
+        <v>73.6521793855861</v>
       </c>
       <c r="E152" t="n">
-        <v>63.6733400325024</v>
+        <v>60.9250236110763</v>
       </c>
       <c r="F152" t="n">
-        <v>56.9464971086609</v>
+        <v>56.9595908530077</v>
       </c>
       <c r="G152" t="n">
-        <v>63.6882633278149</v>
+        <v>63.84559794989</v>
       </c>
     </row>
     <row r="153">
@@ -4069,16 +4069,16 @@
         <v>42</v>
       </c>
       <c r="D153" t="n">
-        <v>77.187323683984</v>
+        <v>80.0165334269392</v>
       </c>
       <c r="E153" t="n">
-        <v>73.1870172012725</v>
+        <v>69.2405095529117</v>
       </c>
       <c r="F153" t="n">
-        <v>66.1821743867822</v>
+        <v>66.1763602668082</v>
       </c>
       <c r="G153" t="n">
-        <v>72.1855050906796</v>
+        <v>71.8111344155531</v>
       </c>
     </row>
     <row r="154">
@@ -4092,16 +4092,16 @@
         <v>44</v>
       </c>
       <c r="D154" t="n">
-        <v>55.3928594578399</v>
+        <v>58.5314717149416</v>
       </c>
       <c r="E154" t="n">
-        <v>56.9135469962935</v>
+        <v>55.7343058015089</v>
       </c>
       <c r="F154" t="n">
-        <v>46.0562225514065</v>
+        <v>46.0565079197526</v>
       </c>
       <c r="G154" t="n">
-        <v>52.7875430018467</v>
+        <v>53.4407618120677</v>
       </c>
     </row>
     <row r="155">
@@ -4115,16 +4115,16 @@
         <v>46</v>
       </c>
       <c r="D155" t="n">
-        <v>59.3969963691556</v>
+        <v>62.9758631137803</v>
       </c>
       <c r="E155" t="n">
-        <v>61.663128260813</v>
+        <v>61.8110532508613</v>
       </c>
       <c r="F155" t="n">
-        <v>55.197119814304</v>
+        <v>55.1933800390023</v>
       </c>
       <c r="G155" t="n">
-        <v>58.7524148147575</v>
+        <v>59.993432134548</v>
       </c>
     </row>
     <row r="156">
@@ -4138,16 +4138,16 @@
         <v>48</v>
       </c>
       <c r="D156" t="n">
-        <v>74.0911830014256</v>
+        <v>76.7813313907205</v>
       </c>
       <c r="E156" t="n">
-        <v>73.8741517315957</v>
+        <v>71.3452850978915</v>
       </c>
       <c r="F156" t="n">
-        <v>60.4763275285692</v>
+        <v>60.4736937663232</v>
       </c>
       <c r="G156" t="n">
-        <v>69.4805540871968</v>
+        <v>69.5334367516451</v>
       </c>
     </row>
     <row r="157">
@@ -4161,16 +4161,16 @@
         <v>50</v>
       </c>
       <c r="D157" t="n">
-        <v>68.3489021432245</v>
+        <v>71.4419631335895</v>
       </c>
       <c r="E157" t="n">
-        <v>73.8322754517607</v>
+        <v>71.6725401121758</v>
       </c>
       <c r="F157" t="n">
-        <v>57.805616172159</v>
+        <v>57.7924170603235</v>
       </c>
       <c r="G157" t="n">
-        <v>66.6622645890481</v>
+        <v>66.9689734353629</v>
       </c>
     </row>
     <row r="158">
@@ -4184,16 +4184,16 @@
         <v>52</v>
       </c>
       <c r="D158" t="n">
-        <v>66.4622797400021</v>
+        <v>69.1881303301761</v>
       </c>
       <c r="E158" t="n">
-        <v>61.7079795559504</v>
+        <v>59.8231624374877</v>
       </c>
       <c r="F158" t="n">
-        <v>57.2540159771668</v>
+        <v>57.2463832621239</v>
       </c>
       <c r="G158" t="n">
-        <v>61.8080917577065</v>
+        <v>62.0858920099293</v>
       </c>
     </row>
     <row r="159">
@@ -4207,16 +4207,16 @@
         <v>54</v>
       </c>
       <c r="D159" t="n">
-        <v>76.5981599875101</v>
+        <v>79.354279782818</v>
       </c>
       <c r="E159" t="n">
-        <v>70.254171185781</v>
+        <v>66.603527492705</v>
       </c>
       <c r="F159" t="n">
-        <v>60.7227282669962</v>
+        <v>60.7273885529005</v>
       </c>
       <c r="G159" t="n">
-        <v>69.1916864800958</v>
+        <v>68.8950652761412</v>
       </c>
     </row>
     <row r="160">
@@ -4230,16 +4230,16 @@
         <v>56</v>
       </c>
       <c r="D160" t="n">
-        <v>75.5334056269027</v>
+        <v>78.4136566479242</v>
       </c>
       <c r="E160" t="n">
-        <v>71.1120781187744</v>
+        <v>66.364638662195</v>
       </c>
       <c r="F160" t="n">
-        <v>62.0178459260772</v>
+        <v>62.0145303790723</v>
       </c>
       <c r="G160" t="n">
-        <v>69.5544432239181</v>
+        <v>68.9309418963972</v>
       </c>
     </row>
     <row r="161">
@@ -4253,16 +4253,16 @@
         <v>58</v>
       </c>
       <c r="D161" t="n">
-        <v>59.0145691200371</v>
+        <v>64.1927861713216</v>
       </c>
       <c r="E161" t="n">
-        <v>55.8062137103654</v>
+        <v>57.2692113004009</v>
       </c>
       <c r="F161" t="n">
-        <v>53.5229160447081</v>
+        <v>53.5147928079788</v>
       </c>
       <c r="G161" t="n">
-        <v>56.1145662917035</v>
+        <v>58.3255967599004</v>
       </c>
     </row>
     <row r="162">
@@ -4276,16 +4276,16 @@
         <v>60</v>
       </c>
       <c r="D162" t="n">
-        <v>75.5846833617593</v>
+        <v>78.6690191891537</v>
       </c>
       <c r="E162" t="n">
-        <v>66.3904071148299</v>
+        <v>64.3880117627706</v>
       </c>
       <c r="F162" t="n">
-        <v>61.3161863797394</v>
+        <v>61.3135193158583</v>
       </c>
       <c r="G162" t="n">
-        <v>67.7637589521095</v>
+        <v>68.1235167559275</v>
       </c>
     </row>
     <row r="163">
@@ -4299,16 +4299,16 @@
         <v>62</v>
       </c>
       <c r="D163" t="n">
-        <v>67.1332497611052</v>
+        <v>70.8975701813931</v>
       </c>
       <c r="E163" t="n">
-        <v>63.8507154548335</v>
+        <v>64.5678986212734</v>
       </c>
       <c r="F163" t="n">
-        <v>54.9199167450191</v>
+        <v>54.9092150186399</v>
       </c>
       <c r="G163" t="n">
-        <v>61.9679606536526</v>
+        <v>63.4582279404354</v>
       </c>
     </row>
     <row r="164">
@@ -4322,16 +4322,16 @@
         <v>64</v>
       </c>
       <c r="D164" t="n">
-        <v>62.5631763822673</v>
+        <v>66.0592739974228</v>
       </c>
       <c r="E164" t="n">
-        <v>53.3088179125952</v>
+        <v>53.3155034598379</v>
       </c>
       <c r="F164" t="n">
-        <v>49.5971183731175</v>
+        <v>49.600568464107</v>
       </c>
       <c r="G164" t="n">
-        <v>55.1563708893266</v>
+        <v>56.3251153071226</v>
       </c>
     </row>
     <row r="165">
@@ -4345,16 +4345,16 @@
         <v>66</v>
       </c>
       <c r="D165" t="n">
-        <v>79.6583411017544</v>
+        <v>82.0895339212521</v>
       </c>
       <c r="E165" t="n">
-        <v>66.2655542344348</v>
+        <v>62.9850782372214</v>
       </c>
       <c r="F165" t="n">
-        <v>60.8995886813349</v>
+        <v>60.8801278080853</v>
       </c>
       <c r="G165" t="n">
-        <v>68.9411613391747</v>
+        <v>68.6515799888529</v>
       </c>
     </row>
     <row r="166">
@@ -4368,16 +4368,16 @@
         <v>68</v>
       </c>
       <c r="D166" t="n">
-        <v>61.1191886608307</v>
+        <v>63.9832385445866</v>
       </c>
       <c r="E166" t="n">
-        <v>64.0274175262908</v>
+        <v>61.6083168739892</v>
       </c>
       <c r="F166" t="n">
-        <v>56.9358441548949</v>
+        <v>56.9333854284094</v>
       </c>
       <c r="G166" t="n">
-        <v>60.6941501140055</v>
+        <v>60.8416469489951</v>
       </c>
     </row>
     <row r="167">
@@ -4391,16 +4391,16 @@
         <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>68.4643894469527</v>
+        <v>69.4891585927678</v>
       </c>
       <c r="E167" t="n">
-        <v>60.5419450002076</v>
+        <v>61.7240734513672</v>
       </c>
       <c r="F167" t="n">
-        <v>59.2759778357967</v>
+        <v>59.2795555936218</v>
       </c>
       <c r="G167" t="n">
-        <v>62.7607707609857</v>
+        <v>63.4975958792523</v>
       </c>
     </row>
     <row r="168">
@@ -4414,16 +4414,16 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>79.8782044909395</v>
+        <v>78.5151041991986</v>
       </c>
       <c r="E168" t="n">
-        <v>70.240395819854</v>
+        <v>67.9686672010056</v>
       </c>
       <c r="F168" t="n">
-        <v>65.1500767231105</v>
+        <v>65.1333931545448</v>
       </c>
       <c r="G168" t="n">
-        <v>71.756225677968</v>
+        <v>70.539054851583</v>
       </c>
     </row>
     <row r="169">
@@ -4437,16 +4437,16 @@
         <v>9</v>
       </c>
       <c r="D169" t="n">
-        <v>69.4678846093493</v>
+        <v>70.6575515260343</v>
       </c>
       <c r="E169" t="n">
-        <v>68.9757877512965</v>
+        <v>68.3123983611799</v>
       </c>
       <c r="F169" t="n">
-        <v>65.9054255213463</v>
+        <v>65.896217105696</v>
       </c>
       <c r="G169" t="n">
-        <v>68.116365960664</v>
+        <v>68.2887223309701</v>
       </c>
     </row>
     <row r="170">
@@ -4460,16 +4460,16 @@
         <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>57.6462864178564</v>
+        <v>60.6803904478008</v>
       </c>
       <c r="E170" t="n">
-        <v>71.4335915780717</v>
+        <v>69.0715495001794</v>
       </c>
       <c r="F170" t="n">
-        <v>63.2141612468543</v>
+        <v>63.2163669583435</v>
       </c>
       <c r="G170" t="n">
-        <v>64.0980130809275</v>
+        <v>64.3227689687746</v>
       </c>
     </row>
     <row r="171">
@@ -4483,16 +4483,16 @@
         <v>12</v>
       </c>
       <c r="D171" t="n">
-        <v>73.0846949041287</v>
+        <v>71.5702091712903</v>
       </c>
       <c r="E171" t="n">
-        <v>52.870754967721</v>
+        <v>54.407448369358</v>
       </c>
       <c r="F171" t="n">
-        <v>60.6441376832912</v>
+        <v>60.6298585223135</v>
       </c>
       <c r="G171" t="n">
-        <v>62.1998625183803</v>
+        <v>62.2025053543206</v>
       </c>
     </row>
     <row r="172">
@@ -4506,16 +4506,16 @@
         <v>14</v>
       </c>
       <c r="D172" t="n">
-        <v>75.4848802341961</v>
+        <v>76.6874204665782</v>
       </c>
       <c r="E172" t="n">
-        <v>58.9697561303434</v>
+        <v>60.4228127244543</v>
       </c>
       <c r="F172" t="n">
-        <v>64.086849795253</v>
+        <v>64.0798143727146</v>
       </c>
       <c r="G172" t="n">
-        <v>66.1804953865975</v>
+        <v>67.0633491879157</v>
       </c>
     </row>
     <row r="173">
@@ -4529,16 +4529,16 @@
         <v>16</v>
       </c>
       <c r="D173" t="n">
-        <v>68.4043911865699</v>
+        <v>71.1933881994698</v>
       </c>
       <c r="E173" t="n">
-        <v>62.374425937772</v>
+        <v>62.5927758242299</v>
       </c>
       <c r="F173" t="n">
-        <v>64.0204796494852</v>
+        <v>64.020279304593</v>
       </c>
       <c r="G173" t="n">
-        <v>64.933098924609</v>
+        <v>65.9354811094309</v>
       </c>
     </row>
     <row r="174">
@@ -4552,16 +4552,16 @@
         <v>18</v>
       </c>
       <c r="D174" t="n">
-        <v>52.0612596801404</v>
+        <v>53.1685504966934</v>
       </c>
       <c r="E174" t="n">
-        <v>52.6752880950208</v>
+        <v>53.5703241354586</v>
       </c>
       <c r="F174" t="n">
-        <v>44.3453256628931</v>
+        <v>44.3627396324977</v>
       </c>
       <c r="G174" t="n">
-        <v>49.6939578126848</v>
+        <v>50.3672047548832</v>
       </c>
     </row>
     <row r="175">
@@ -4575,16 +4575,16 @@
         <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>66.7185625150447</v>
+        <v>67.3533019743123</v>
       </c>
       <c r="E175" t="n">
-        <v>65.4676974663442</v>
+        <v>64.0460582043623</v>
       </c>
       <c r="F175" t="n">
-        <v>61.4719686790185</v>
+        <v>61.4797102399254</v>
       </c>
       <c r="G175" t="n">
-        <v>64.5527428868025</v>
+        <v>64.2930234728667</v>
       </c>
     </row>
     <row r="176">
@@ -4598,16 +4598,16 @@
         <v>22</v>
       </c>
       <c r="D176" t="n">
-        <v>65.6923387035441</v>
+        <v>62.0800814483136</v>
       </c>
       <c r="E176" t="n">
-        <v>68.4107678920946</v>
+        <v>70.6103102508613</v>
       </c>
       <c r="F176" t="n">
-        <v>75.6439424101464</v>
+        <v>75.6468009029229</v>
       </c>
       <c r="G176" t="n">
-        <v>69.9156830019284</v>
+        <v>69.4457308673659</v>
       </c>
     </row>
     <row r="177">
@@ -4621,16 +4621,16 @@
         <v>24</v>
       </c>
       <c r="D177" t="n">
-        <v>71.9224366069548</v>
+        <v>78.7368374933013</v>
       </c>
       <c r="E177" t="n">
-        <v>64.3577579311729</v>
+        <v>61.3295883357418</v>
       </c>
       <c r="F177" t="n">
-        <v>59.7462360798383</v>
+        <v>59.7386944725515</v>
       </c>
       <c r="G177" t="n">
-        <v>65.342143539322</v>
+        <v>66.6017067671982</v>
       </c>
     </row>
     <row r="178">
@@ -4644,16 +4644,16 @@
         <v>26</v>
       </c>
       <c r="D178" t="n">
-        <v>67.2228549414161</v>
+        <v>68.7817623159303</v>
       </c>
       <c r="E178" t="n">
-        <v>59.9419000131537</v>
+        <v>61.2161870965315</v>
       </c>
       <c r="F178" t="n">
-        <v>53.9729777959241</v>
+        <v>53.9640358408044</v>
       </c>
       <c r="G178" t="n">
-        <v>60.3792442501646</v>
+        <v>61.3206617510887</v>
       </c>
     </row>
     <row r="179">
@@ -4667,16 +4667,16 @@
         <v>28</v>
       </c>
       <c r="D179" t="n">
-        <v>42.5012315135534</v>
+        <v>45.7225046523962</v>
       </c>
       <c r="E179" t="n">
-        <v>51.3042547221867</v>
+        <v>52.8029113679472</v>
       </c>
       <c r="F179" t="n">
-        <v>46.2555701815727</v>
+        <v>46.2745774621281</v>
       </c>
       <c r="G179" t="n">
-        <v>46.6870188057709</v>
+        <v>48.2666644941572</v>
       </c>
     </row>
     <row r="180">
@@ -4690,16 +4690,16 @@
         <v>30</v>
       </c>
       <c r="D180" t="n">
-        <v>67.3553046125782</v>
+        <v>70.5784313915192</v>
       </c>
       <c r="E180" t="n">
-        <v>62.7208764501734</v>
+        <v>62.1979360877636</v>
       </c>
       <c r="F180" t="n">
-        <v>56.1021978352654</v>
+        <v>56.099721826134</v>
       </c>
       <c r="G180" t="n">
-        <v>62.0594596326723</v>
+        <v>62.9586964351389</v>
       </c>
     </row>
     <row r="181">
@@ -4713,16 +4713,16 @@
         <v>32</v>
       </c>
       <c r="D181" t="n">
-        <v>73.6778274530046</v>
+        <v>75.2208208379245</v>
       </c>
       <c r="E181" t="n">
-        <v>68.8174230457897</v>
+        <v>67.2290142731337</v>
       </c>
       <c r="F181" t="n">
-        <v>64.0004486778873</v>
+        <v>63.9959610401525</v>
       </c>
       <c r="G181" t="n">
-        <v>68.8318997255605</v>
+        <v>68.8152653837369</v>
       </c>
     </row>
     <row r="182">
@@ -4736,16 +4736,16 @@
         <v>34</v>
       </c>
       <c r="D182" t="n">
-        <v>64.4084141627667</v>
+        <v>65.2501981272706</v>
       </c>
       <c r="E182" t="n">
-        <v>58.5779557973393</v>
+        <v>63.9564850180531</v>
       </c>
       <c r="F182" t="n">
-        <v>57.4070077966823</v>
+        <v>57.4061357884396</v>
       </c>
       <c r="G182" t="n">
-        <v>60.1311259189294</v>
+        <v>62.2042729779211</v>
       </c>
     </row>
     <row r="183">
@@ -4759,16 +4759,16 @@
         <v>36</v>
       </c>
       <c r="D183" t="n">
-        <v>62.8067772859499</v>
+        <v>64.7011710383615</v>
       </c>
       <c r="E183" t="n">
-        <v>56.900792673608</v>
+        <v>58.3245795094661</v>
       </c>
       <c r="F183" t="n">
-        <v>53.1987020565217</v>
+        <v>53.1934901999891</v>
       </c>
       <c r="G183" t="n">
-        <v>57.6354240053599</v>
+        <v>58.7397469159389</v>
       </c>
     </row>
     <row r="184">
@@ -4782,16 +4782,16 @@
         <v>38</v>
       </c>
       <c r="D184" t="n">
-        <v>59.1771883052197</v>
+        <v>58.3946524635511</v>
       </c>
       <c r="E184" t="n">
-        <v>59.5277366070506</v>
+        <v>61.4862644754157</v>
       </c>
       <c r="F184" t="n">
-        <v>57.8821379584927</v>
+        <v>57.880283246934</v>
       </c>
       <c r="G184" t="n">
-        <v>58.8623542902543</v>
+        <v>59.2537333953003</v>
       </c>
     </row>
     <row r="185">
@@ -4805,16 +4805,16 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>70.0581322191739</v>
+        <v>71.5626989825544</v>
       </c>
       <c r="E185" t="n">
-        <v>60.8333339780486</v>
+        <v>59.5501505742276</v>
       </c>
       <c r="F185" t="n">
-        <v>59.112220519517</v>
+        <v>59.1185055401045</v>
       </c>
       <c r="G185" t="n">
-        <v>63.3345622389132</v>
+        <v>63.4104516989621</v>
       </c>
     </row>
     <row r="186">
@@ -4828,16 +4828,16 @@
         <v>42</v>
       </c>
       <c r="D186" t="n">
-        <v>78.8996985568772</v>
+        <v>80.3641650932037</v>
       </c>
       <c r="E186" t="n">
-        <v>71.692322175449</v>
+        <v>68.831070269176</v>
       </c>
       <c r="F186" t="n">
-        <v>68.3743634275734</v>
+        <v>68.3711554379303</v>
       </c>
       <c r="G186" t="n">
-        <v>72.9887947199665</v>
+        <v>72.52213026677</v>
       </c>
     </row>
     <row r="187">
@@ -4851,16 +4851,16 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
-        <v>54.1827066206223</v>
+        <v>52.178028721055</v>
       </c>
       <c r="E187" t="n">
-        <v>50.1968551460541</v>
+        <v>51.2540148422801</v>
       </c>
       <c r="F187" t="n">
-        <v>49.3129552589526</v>
+        <v>49.314097255731</v>
       </c>
       <c r="G187" t="n">
-        <v>51.230839008543</v>
+        <v>50.9153802730221</v>
       </c>
     </row>
     <row r="188">
@@ -4874,16 +4874,16 @@
         <v>46</v>
       </c>
       <c r="D188" t="n">
-        <v>58.4964404802606</v>
+        <v>60.8883635891425</v>
       </c>
       <c r="E188" t="n">
-        <v>54.8922352263148</v>
+        <v>58.5425559373023</v>
       </c>
       <c r="F188" t="n">
-        <v>55.996287771084</v>
+        <v>55.9935995986439</v>
       </c>
       <c r="G188" t="n">
-        <v>56.4616544925531</v>
+        <v>58.4748397083629</v>
       </c>
     </row>
     <row r="189">
@@ -4897,16 +4897,16 @@
         <v>48</v>
       </c>
       <c r="D189" t="n">
-        <v>74.7314161070854</v>
+        <v>77.6158637129015</v>
       </c>
       <c r="E189" t="n">
-        <v>72.432928099506</v>
+        <v>71.1944776993847</v>
       </c>
       <c r="F189" t="n">
-        <v>64.0095101950721</v>
+        <v>64.0104190587604</v>
       </c>
       <c r="G189" t="n">
-        <v>70.3912848005545</v>
+        <v>70.9402534903488</v>
       </c>
     </row>
     <row r="190">
@@ -4920,16 +4920,16 @@
         <v>50</v>
       </c>
       <c r="D190" t="n">
-        <v>69.8856990599837</v>
+        <v>70.0839289562533</v>
       </c>
       <c r="E190" t="n">
-        <v>71.6620873911296</v>
+        <v>70.6310382965855</v>
       </c>
       <c r="F190" t="n">
-        <v>58.0019910070792</v>
+        <v>57.9893730841701</v>
       </c>
       <c r="G190" t="n">
-        <v>66.5165924860642</v>
+        <v>66.2347801123363</v>
       </c>
     </row>
     <row r="191">
@@ -4943,16 +4943,16 @@
         <v>52</v>
       </c>
       <c r="D191" t="n">
-        <v>63.5630275823774</v>
+        <v>63.8374459960071</v>
       </c>
       <c r="E191" t="n">
-        <v>55.810871282141</v>
+        <v>56.0708552576756</v>
       </c>
       <c r="F191" t="n">
-        <v>59.0696543914716</v>
+        <v>59.0680851553422</v>
       </c>
       <c r="G191" t="n">
-        <v>59.4811844186633</v>
+        <v>59.6587954696749</v>
       </c>
     </row>
     <row r="192">
@@ -4966,16 +4966,16 @@
         <v>54</v>
       </c>
       <c r="D192" t="n">
-        <v>78.1720584299887</v>
+        <v>77.3365823686737</v>
       </c>
       <c r="E192" t="n">
-        <v>67.5797337684712</v>
+        <v>64.6078676425793</v>
       </c>
       <c r="F192" t="n">
-        <v>64.2035923188732</v>
+        <v>64.2124997649757</v>
       </c>
       <c r="G192" t="n">
-        <v>69.9851281724444</v>
+        <v>68.7189832587429</v>
       </c>
     </row>
     <row r="193">
@@ -4989,16 +4989,16 @@
         <v>56</v>
       </c>
       <c r="D193" t="n">
-        <v>74.1608469821911</v>
+        <v>73.9529614891187</v>
       </c>
       <c r="E193" t="n">
-        <v>66.885103179828</v>
+        <v>63.4950751685964</v>
       </c>
       <c r="F193" t="n">
-        <v>65.2470860487625</v>
+        <v>65.2396040370385</v>
       </c>
       <c r="G193" t="n">
-        <v>68.7643454035939</v>
+        <v>67.5625468982512</v>
       </c>
     </row>
     <row r="194">
@@ -5012,16 +5012,16 @@
         <v>58</v>
       </c>
       <c r="D194" t="n">
-        <v>61.0069188402924</v>
+        <v>58.8243429759438</v>
       </c>
       <c r="E194" t="n">
-        <v>49.5207630259162</v>
+        <v>55.7252357243572</v>
       </c>
       <c r="F194" t="n">
-        <v>58.0687120503279</v>
+        <v>58.0634748027797</v>
       </c>
       <c r="G194" t="n">
-        <v>56.1987979721788</v>
+        <v>57.5376845010269</v>
       </c>
     </row>
     <row r="195">
@@ -5035,16 +5035,16 @@
         <v>60</v>
       </c>
       <c r="D195" t="n">
-        <v>76.7768062225978</v>
+        <v>76.0624241724209</v>
       </c>
       <c r="E195" t="n">
-        <v>62.0417278781014</v>
+        <v>62.837729982291</v>
       </c>
       <c r="F195" t="n">
-        <v>65.0571744782767</v>
+        <v>65.0564850997182</v>
       </c>
       <c r="G195" t="n">
-        <v>67.9585695263253</v>
+        <v>67.9855464181434</v>
       </c>
     </row>
     <row r="196">
@@ -5058,16 +5058,16 @@
         <v>62</v>
       </c>
       <c r="D196" t="n">
-        <v>65.7870660823131</v>
+        <v>68.2762240455581</v>
       </c>
       <c r="E196" t="n">
-        <v>55.8353930766296</v>
+        <v>61.1421341959342</v>
       </c>
       <c r="F196" t="n">
-        <v>57.3876787207596</v>
+        <v>57.3810565380154</v>
       </c>
       <c r="G196" t="n">
-        <v>59.6700459599008</v>
+        <v>62.2664715931692</v>
       </c>
     </row>
     <row r="197">
@@ -5081,16 +5081,16 @@
         <v>64</v>
       </c>
       <c r="D197" t="n">
-        <v>64.3618059441544</v>
+        <v>66.2061982073142</v>
       </c>
       <c r="E197" t="n">
-        <v>45.948756010808</v>
+        <v>49.4201822715759</v>
       </c>
       <c r="F197" t="n">
-        <v>53.202967123062</v>
+        <v>53.2087181075522</v>
       </c>
       <c r="G197" t="n">
-        <v>54.5045096926748</v>
+        <v>56.2783661954808</v>
       </c>
     </row>
     <row r="198">
@@ -5104,16 +5104,16 @@
         <v>66</v>
       </c>
       <c r="D198" t="n">
-        <v>81.3014776105106</v>
+        <v>80.2827465251425</v>
       </c>
       <c r="E198" t="n">
-        <v>64.3355062552222</v>
+        <v>61.2509217977436</v>
       </c>
       <c r="F198" t="n">
-        <v>63.6053049078397</v>
+        <v>63.5844518895881</v>
       </c>
       <c r="G198" t="n">
-        <v>69.7474295911908</v>
+        <v>68.3727067374914</v>
       </c>
     </row>
     <row r="199">
@@ -5127,16 +5127,16 @@
         <v>68</v>
       </c>
       <c r="D199" t="n">
-        <v>57.8084891628842</v>
+        <v>57.5911032330672</v>
       </c>
       <c r="E199" t="n">
-        <v>60.8401446242885</v>
+        <v>60.32188417839</v>
       </c>
       <c r="F199" t="n">
-        <v>58.2809601268235</v>
+        <v>58.2838692903471</v>
       </c>
       <c r="G199" t="n">
-        <v>58.9765313046654</v>
+        <v>58.7322855672681</v>
       </c>
     </row>
     <row r="200">
@@ -5151,13 +5151,13 @@
         <v>100</v>
       </c>
       <c r="E200" t="n">
-        <v>100</v>
+        <v>99.4076838176807</v>
       </c>
       <c r="F200" t="n">
         <v>100</v>
       </c>
       <c r="G200" t="n">
-        <v>100</v>
+        <v>99.8025612725602</v>
       </c>
     </row>
     <row r="201">
